--- a/output.xlsx
+++ b/output.xlsx
@@ -491,49 +491,48 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEDSTAR GEORGETOWN UNIVERSITY HOSPITAL</t>
+          <t>UNIVERSITY HOSPITAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leadership: Meet MedStar Health Leaders | MedStar Health</t>
+          <t>UH Population Health / Accountable Care Organization</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.medstarhealth.org/about/medstar-health-leadership</t>
+          <t>https://www.uhhospitals.org/about-uh/population-health-accountable-care-organization</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ A timeout occurred Error code 524 Visit cloudflare.com for more information. 2024-07-29 02:19:26 UTC You Browser Working Ashburn Cloudflare Working r.jina.ai Host Error What happened? The origin web server timed out responding to this request. What can I do? If you're a visitor of this website: Please try again in a few minutes. If you're the owner of this website: The connection to the origin web server was made, but the origin web server timed out before responding. The likely cause is an overloaded background task, database or application, stressing the resources on your web server. To resolve, please work with your hosting provider or web development team to free up resources for your database or overloaded application. Additional troubleshooting information here. Cloudflare Ray ID: 8aa99d503a7a58a6 Performance &amp; security by Cloudflare.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>In the News | Health Justice Alliance | Georgetown Law</t>
+          <t>58 population health executives to know | 2022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.law.georgetown.edu/health-justice-alliance/about-us/in-the-news/</t>
+          <t>https://www.beckershospitalreview.com/lists/58-population-health-executives-to-know-2022.html</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Loral Patchen, Medical Champion 
-Roxana Richardson, MLP Director 
-none found</t>
+          <t>Parag Agnihotri, MD. Chief Medical Officer of Population Health Services at UCSD Health (San Diego)., Daphne Bascom, MD, PhD. Vice President of Population Health at Saint Luke's Health System (Kansas City, Mo.)., Scott Berkowitz, MD. Chief Population Health Officer and Vice President of Population Health at Johns Hopkins Medicine (Baltimore)., Marilu Bintz, MD. Senior Vice President of Health Population and Strategy at Gunderson Health System (La Crosse, Wis.)., Tangerine Brigham. Chief Administrative Officer, Population Health, at Alameda (Calif.) Health System., Marta Brito Perez. Senior Vice President of Population Health and Post Acute Care Services at Adventist HealthCare (Gaithersburg, Md.)., Mallory Callahan. Director of Population Health Management and Innovation for Nebraska Health Network (Omaha)., Chuck Callahan, DO. Vice President of Population Health for the University of Maryland Medical Center (Baltimore)., Steven Carson, BSN, RN. Senior Vice President, Population Health, Temple University Health System (Philadelphia)., Sang-ick Chang, MD. Division Chief of Primary Care and Population Health of Stanford (Calif.) Medicine., Nichola Davis, MD. Vice President, Chief Population Health Officer  for NYC Health+Hospitals., Desiree de la Torre. Director of Community Affairs and Population Health Improvement of Children's National (Washington, D.C.)., Dan Edelman, DO. Chief Medical Information Officer, Florida Region, and Chief Population Health Officer of Cleveland Clinic (Weston, Fla.)., Kristine Fay. Chief Officer of Population Health and Physician Services at Lee Health (Fort Myers, Fla.)., Rob Fields, MD. Executive Vice President and Chief Population Health Officer of Mount Sinai Health System (New York)., Don Franke. CEO of Amita Health Care Networks and Senior Vice President of Population Health at Amita Health (Arlington Heights, Ill.)., Kristene Grayem, MSN. Chief Population Health Officer and Executive Director of Akron (Ohio) Children's Health Collaborative., Reshma Gupta, MD. Chief of Population Health and Accountable Care at the University of California, Davis., Patrick Hammond, MHA. Chief Market Services Officer and Chief Innovations and Population Health Officer, Emory Healthcare; CEO, Emory Healthcare Network (Atlanta)., Terri Hanlon-Bremer, MSN, RN. Senior Vice President of Employer Solutions and Population Health at TriHealth (Cincinnati)., Carrie Harris-Muller. Senior Vice President and Chief Population Health Officer at OhioHealth (Columbus)., Susan Hawkins. Senior Vice President of Population Health at Henry Ford Health System (Detroit)., Ethan Helm, MD. Vice Chancellor of Population Health for Rutgers Biomedical and Health Sciences and Deputy Chief Population Health Officer at RWJBarnabas Health (West Orange, N.J.)., Jennifer Houlihan. Vice President of Value-Based Care and Population Health at Atrium Health Wake Forest Baptist (Winston-Salem, N.C.)., Jonathan Jaffery, MD. Chief Population Health Officer at UW Health (Madison, Wis.)., Bill Johnjulio, MD. Chief Population Health Officer of Allegheny Health Network (Pittsburgh)., Lindsay Jubelt, MD. Chief Population Health Officer of Mass General Brigham (Boston)., Anthony Keck. Executive Vice President for System Innovation and Chief Population Health Officer at Ballad Health (Johnson City, Tenn.)., Meaghan Kim, BSN, RN. Director of Population Health at Temple University Health System (Philadelphia)., Rhonda Medows, MD. President of Population Health Management at Providence (Renton, Wash.)., Adam Myers, MD. Chief of Population Health at Cleveland Clinic and Chair of Cleveland Clinic Community Care., Tina Mycroft. CFO of EvergreenHealth Kirkland (Wash.)., David Nash, MD. Founding Dean Emeritus at Jefferson College of Population Health (Philadelphia)., Carrie Nelson, MD. Senior Vice President and Chief Medical Officer, Population Health and Health Outcomes at Advocate Aurora Health (Milwaukee, Wis., and Downers Grove, Ill.)., Susan Neves. CFO of Hill Country Memorial Hospital (Fredericksburg, Texas)., Judi Nightingale, DrPH, RN. Director of Population Health at Riverside University Health System (Moreno Valley, Calif.)., Derek Novak. President of the Population Health Services Organization at MercyOne (Des Moines, Iowa)., Kara Odom Walker, MD. Chief Population Health Officer at Nemours Children's Health (Melbourne, Fla.)., Dawn O'Neill. Vice President of Population Health at St. Agnes Hospital (Baltimore)., Philip Oravetz, MD. Chief Population Health Officer at Ochsner Health (New Orleans)., Andrew Ozmun. Finance Director of Riverton (Utah) and Alta View Hospital (Sandy, Utah)., Ami Parekh, MD. Chief Medical Officer for Population Health and Clinical Integration at University of California San Francisco Health., James Parr. Executive Vice President of Operations and CFO of Salem (Ore.) Hospital., Samatha Patrick. CFO of Clark Regional Medical Center (Winchester, Ky.) and Bourbon Community Hospital (Paris, Ky.)., Michael Perry. Vice President of Finance and CFO of Mid Coast-Parkview Health (Brunswick, Maine)., Adam Popp. CFO of Prairie Lakes Healthcare System (Watertown, S.D.)., Trever Porter. Finance Director of Intermountain McKay-Dee Hospital (Ogden, Utah)., Tony Reed. Vice President for Population Health Operations at ChristianaCare (Newark, Del.)., Jamie Reedy, MD. Chief of Population Health at Summit Health (Berkeley Heights, N.J.)., Devdutta Sangvai, MD. Vice President for Population Health Management at Duke Health (Durham, N.C.)., Navkiran Shokar, MD. Chair of the Department of Population Health at the University of Texas at Austin Dell Medical School (Austin, Texas)., Mark Sparta. Executive Vice President of Population Health for Hackensack Meridian Health Network and President of Hackensack University Medical Center (Edison, N.J.)., Douglas Spotts, MD. Chief Health Officer of Meritus Health (Hagerstown, Md.)., Nicholas Stine, MD. System Senior Vice President of Enterprise Population Health atCommonSpirit Health (Chicago)., Mark Terpylak, DO. Senior Vice President of Population Health at Summa Health (Akron, Ohio)., Jim Tidwell, MD. Vice President of Population Health of Owensboro Health (Owensboro, Ky.)., Debbie Welle-Powell. Chief Population Health Officer at Essentia Health (Duluth, Minn.)..</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>About Our Hospital | MedStar Georgetown University Hospital ...</t>
+          <t>Duke Department of Population Health Sciences</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.medstarhealth.org/locations/medstar-georgetown-university-hospital/about-our-hospital</t>
+          <t>https://populationhealth.duke.edu/</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -548,32 +547,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SIBLEY MEMORIAL HOSPITAL</t>
+          <t>NORTHEAST GEORGIA MEDICAL CENTER, INC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nursing Leadership | Sibley Memorial Hospital | Johns Hopkins ...</t>
+          <t>System Administration - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.hopkinsmedicine.org/sibley-memorial-hospital/nursing/nurse-leadership</t>
+          <t>https://www.nghs.com/administration</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Antonio Rios MD Chief of Population Health</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Year in Review 2021-2022</t>
+          <t>Graduate Medical Education (GME) | Northeast Georgia Medical ...</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://publichealth.jhu.edu/sites/default/files/2022-11/hpm-year-in-review5-cha11y.pdf</t>
+          <t>https://www.ngmcgme.org/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -583,12 +582,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sibley Memorial Hospital Leadership | Johns Hopkins Medicine</t>
+          <t>Northeast Georgia Health System, Inc. &amp; Affiliates Executive ...</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.hopkinsmedicine.org/about/leadership/sibley</t>
+          <t>https://www.nghs.com/wp-content/uploads/2020/08/fy17-exec-summary.pdf</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -603,17 +602,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UNITED MEDICAL CENTER</t>
+          <t>CARTERSVILLE MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Department of Population Health | NYU Langone Health</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://med.nyu.edu/departments-institutes/population-health/</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -623,12 +622,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Johns Hopkins Bloomberg School of Public Health</t>
+          <t>Community Health Assessment Bartow County</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://publichealth.jhu.edu/</t>
+          <t>https://nwgapublichealth.org/wp-content/uploads/2019/11/Bartow-Community-Health-Assessment_Final.pdf</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -638,12 +637,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Leadership Development for Physicians in Academic Health Centers</t>
+          <t>Piedmont Cartersville Medical Center | Piedmont Healthcare</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.hsph.harvard.edu/ecpe/programs/leadership-development-for-physicians-in-academic-health-centers/</t>
+          <t>https://www.piedmont.org/locations/piedmont-cartersville/about</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -658,17 +657,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEDSTAR WASHINGTON HOSPITAL CENTER</t>
+          <t>WELLSTAR SPALDING REGIONAL HOSPITAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leadership Team Members - MedStar Washington Hospital Center</t>
+          <t>Wellstar Spalding Medical Center</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.medstarhealth.org/locations/medstar-washington-hospital-center/leadership</t>
+          <t>https://www.wellstar.org/locations/hospital/spalding-medical-center</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -678,29 +677,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>In the News | Health Justice Alliance | Georgetown Law</t>
+          <t>Internal Medicine | Spalding Regional Hospital – Wellstar Graduate ...</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.law.georgetown.edu/health-justice-alliance/about-us/in-the-news/</t>
+          <t>https://gme.wellstar.org/spalding-regional-hospital/internal-medicine/</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Loral Patchen, Medical Champion 
-Roxana Richardson, MLP Director 
-none found</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Leadership: Meet MedStar Health Leaders | MedStar Health</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.medstarhealth.org/about/medstar-health-leadership</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -715,17 +712,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UF HEALTH JACKSONVILLE</t>
+          <t>STEPHENS COUNTY HOSPITAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UF Health Leadership - About UF Health - UF Health</t>
+          <t>Community Health Needs Assessment</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://ufhealth.org/about-uf-health/uf-health-leadership</t>
+          <t>https://stephenscountyhospital.com/fullpanel/uploads/files/health-needs-assessment-2016.pdf</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -735,12 +732,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>News - UF Health Jacksonville</t>
+          <t>DUNCAN-7359 Stephens County Community Health Assessment_D ...</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://ufhealthjax.org/news</t>
+          <t>https://www.duncanregional.com/wp-content/uploads/2019/03/CHNA2013.pdf</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -750,17 +747,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>UF Health leadership recognizes trailblazing women in medicine ...</t>
+          <t>Leadership | OhioHealth</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://facultyadvancement.med.jax.ufl.edu/2022/09/30/uf-health-leadership-recognizes-trailblazing-women-in-medicine-and-health-care/</t>
+          <t>https://www.ohiohealth.com/about-us/leadership</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
         </is>
       </c>
     </row>
@@ -770,53 +767,56 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BETHESDA HOSPITAL EAST</t>
+          <t>AU MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>180 chief medical officers to know | 2024</t>
+          <t>About the School of Public Health</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.beckershospitalreview.com/lists/180-hospital-and-health-system-chief-medical-officers-to-know-2024.html</t>
+          <t>https://www.augusta.edu/sph/about.php</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Joshua Adler, MD. Executive Vice President and Chief Clinical Officer at UCSF Health (San Francisco)
-Joseph Chang, MD. Chief Medical Officer of Parkland Health (Dallas)</t>
+          <t>Teresa Waters, PhD, Dean, School of Public Health</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Public Health Foundation Board - UNC Gillings School of Global ...</t>
+          <t>The University of Sydney School of Public Health - Faculty of ...</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://sph.unc.edu/gift/public-health-foundation-board/</t>
+          <t>https://www.sydney.edu.au/medicine-health/schools/sydney-school-of-public-health.html</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Professor Jaime Miranda, Head of School
+Professor Camille Raynes-Greenow, Deputy Head of School
+John Mitchell, School Manager 
+Professor Don Nutbeam, Professor
+Professor Lisa Jackson Pulver, Professor</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bethesda Hospital East | Baptist Health</t>
+          <t>PGY1/PGY2 Health-System Pharmacy Administration &amp; Leadership ...</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/locations/hospitals/bethesda-hospital-east</t>
+          <t>https://www.augustahealth.org/pharmacy-residency/hspal</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Meredith Lopez, PharmD, MPH, BCACP, Pharmacy Manager, Ambulatory Services</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORLANDO HEALTH ORLANDO REGIONAL MEDICAL CENTER</t>
+          <t>WELLSTAR KENNESTONE HOSPITAL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Orlando Health Leadership Team</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orlando Health</t>
+          <t>Family Medicine | Kennestone Hospital – Wellstar Graduate Medical ...</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://careers.orlandohealth.com/</t>
+          <t>https://gme.wellstar.org/kennestone/family-medicine/</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -861,17 +861,18 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Brandon Burket</t>
+          <t>2016 Community Health Needs Assessment IMPLEMENTATION</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership/brandon-burket</t>
+          <t>https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Brandon Burket, Vice President, Value-Based Care and Population Health</t>
+          <t>Unusual behavior notice: Webpage: 
+ AssertionFailureError Failed to goto https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a Error net::ERR_ABORTED at https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a.</t>
         </is>
       </c>
     </row>
@@ -881,17 +882,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH ORLANDO</t>
+          <t>MEMORIAL HEALTH UNIVERSITY MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Northwestern Memorial HealthCare Corporate Leadership ...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.nm.org/about-us/leadership</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -901,27 +902,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Apply for VP Home Health Jobs in Orlando, FL | AdventHealth</t>
+          <t>Sarasota Memorial Administrators</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://jobs.adventhealth.com/orlando-fl/vp-home-health/C1BD9C53B2794B43970E905A03D2D80B/job/</t>
+          <t>https://www.smh.com/Home/About-Us/Administrators</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>James Fiorica, MD, Chief Medical Officer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AdventHealth | A Leader in Whole-Person Health Care</t>
+          <t>Our Leaders at Baptist Memorial Health Care Corporation</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/</t>
+          <t>https://www.baptistonline.org/about/leadership</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -936,52 +937,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BAPTIST HOSPITAL OF MIAMI</t>
+          <t>JOHN D ARCHBOLD MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Physician Leadership | Baptist Health Medical Group</t>
+          <t>2024 Residency Matches | Harrison College of Pharmacy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/healthcare-professionals/for-physicians/baptist-health-medical-group/about-us/physician-leadership</t>
+          <t>https://pharmacy.auburn.edu/news/2023-24/042524-residencies.php</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jonathan Adam Fialkow, MD, Chief Medical Executive, Value, Primary Care and Population Health</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>System Leadership - Baptist Health</t>
+          <t>Leadership | Medical Services Thomasville, GA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.baptisthealth.com/about/system-leadership</t>
+          <t>https://www.archbold.org/about/leadership/</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Julie Dumas, Vice President of Quality &amp; Patient Safety</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>West Kendall Baptist Hospital's Healthy Hub Among Winners in the ...</t>
+          <t>CMS Posts ED Wait Times, Rankling Some Hospitals ...</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/newsroom/press-release/westkendallbaptisthospitalshealthyhubamongwinnersinthegehealthycitiesleadershipacademyopeninnovation</t>
+          <t>https://www.healthleadersmedia.com/clinical-care/cms-posts-ed-wait-times-rankling-some-hospitals</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Unable to generate because of Timeout of 600.0s exceeded, last exception: 503 failed to connect to all addresses; last error: UNKNOWN: ipv4:142.250.190.138:443: tcp handshaker shutdown</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -991,33 +992,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LEE MEMORIAL HOSPITAL</t>
+          <t>NORTHRIDGE MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lee Health Announces Organizational Leadership Changes | Lee ...</t>
+          <t>Northridge Hospital Medical Center | Southern California Hospitals ...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.leehealth.org/about-us/media/press-releases/lee-health-announces-organizational-leadership-changes</t>
+          <t>https://www.dignityhealth.org/socal/locations/northridgehospital</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>- Kris Fay, Chief Officer Population Health and Physician Services
-- Dr. Venkat Prasad, Chief Medical Officer Population Health and Physician Services</t>
+          <t>Center for Healthier Communities, Population Health</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Leadership | OhioHealth</t>
+          <t>Mary Evelyn Northridge, PhD, MPH Public Health Leadership in a ...</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.ohiohealth.com/about-us/leadership</t>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4504309/</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Our Leadership | About Us | Lee Health</t>
+          <t>Executive Leadership | Southern California | Dignity Health | Dignity ...</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.leehealth.org/about-us/our-leadership</t>
+          <t>https://www.dignityhealth.org/socal/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH NEW SMYRNA BEACH</t>
+          <t>HABERSHAM COUNTY MEDICAL CTR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>NGHS ensures consistent leadership for Habersham Medical Center ...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.nghs.com/2023/06/20/nghs-ensures-consistent-leadership-for-habersham-medical-center-and-adds-new-general-surgeon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maryann Fields - Health Care Executive - Operational Enhancement ...</t>
+          <t>Habersham Medical Center &amp; Northeast Georgia Health System ...</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/maryann-fields-743922ba</t>
+          <t>https://www.ngpg.org/habersham-medical-center-northeast-georgia-health-system-reach-definitive-agreement-on-five-year-pl</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>AdventHealth New Smyrna Beach* - 2019 COMMUNITY HEALTH ...</t>
+          <t>System Administration - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/sites/default/files/assets/2019_CHNA_AdventHealth_New_Smyrna_Beach.pdf</t>
+          <t>https://www.nghs.com/administration</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Antonio Rios MD Chief of Population Health</t>
         </is>
       </c>
     </row>
@@ -1102,17 +1102,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HALIFAX HEALTH MEDICAL CENTER</t>
+          <t>WELLSTAR PAULDING HOSPITAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Halifax Health Leadership | Halifax Health</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://halifaxhealth.org/about/halifax-health-leadership</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1122,35 +1122,33 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Who We Are - Commissioner</t>
+          <t>Wellstar Paulding Hospital | NIST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.vdh.virginia.gov/commissioner/</t>
+          <t>https://www.nist.gov/baldrige/wellstar-paulding-hospital</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Laurie Forlano, DO, MPH, State Epidemiologist
-Suresh Soundararajan, Chief Information Officer
-Jeff Stover, Chief of Staff
-Vacant, Deputy Commissioner for Population Health and Preparedness</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ann Martorano | Halifax Health</t>
+          <t>2016 Community Health Needs Assessment IMPLEMENTATION</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://halifaxhealth.org/about/halifax-health-leadership/ann-martorano</t>
+          <t>https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ AssertionFailureError Failed to goto https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a Error net::ERR_ABORTED at https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a.</t>
         </is>
       </c>
     </row>
@@ -1160,53 +1158,49 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NAPLES COMMUNITY HOSPITAL</t>
+          <t>ST JOSEPH'S HOSPITAL - SAVANNAH</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Officers and Trustees | NCH Healthcare System</t>
+          <t>149 Black healthcare leaders to know | 2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://nchmd.org/about-us/officers-and-trustees/</t>
+          <t>https://www.beckershospitalreview.com/lists/149-black-healthcare-leaders-to-know-2023.html</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Paul Hiltz, President and CEO
-none found</t>
+          <t>Nichola Davis, MD. Vice President and Chief Population Health Officer of NYC Health + Hospitals (New York City). 
+Paul Alexander, MD. Executive Vice President and Chief Health Equity and Transformation Officer at RWJBarnabas Health (Orange, N.J.). 
+Evelyn Balogun, MD. Chief Medical Officer of Inspira Medical Group (Mullica Hill, N.J.).</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Improving Population Health Through Communitywide Partnerships ...</t>
+          <t>Timeline of City Actions | Savannah, GA - Official Website</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.commonwealthfund.org/publications/newsletter-article/improving-population-health-through-communitywide-partnerships</t>
+          <t>https://www.savannahga.gov/2975/Timeline-of-City-Actions</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Robert Kahn, M.D., M.P.H., Associate Professor of Pediatrics 
-Laura Long, M.D., M.P.H., Vice President of Clinical Quality and Health Management 
-Donald Moore, M.H.A., CEO 
-Allen Weiss, M.D., President and CEO 
-Todd Vedder, M.D., Chair of Pediatrics 
-John O'Brien, President and CEO</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NCH HEALTHCARE SYSTEM COMMUNITY NEEDS ASSESSMENT</t>
+          <t>St Josephs / Candler: Savannah Hospital | St. Joseph`s/Candler</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://nchmd.org/wp-content/uploads/2022/10/2022_10_NCH-Community-Health-needs-assessment.pdf</t>
+          <t>https://www.sjchs.org/</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1221,32 +1215,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOLMES REGIONAL MEDICAL CENTER</t>
+          <t>PHOEBE SUMTER MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Executive Leadership - MultiCare</t>
+          <t>We, the undersigned healthcare and public health professionals ...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.multicare.org/about/leadership/</t>
+          <t>https://innovationlawlab.org/media/GA_DPH_re_COVID19_and_ICE.pdf</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>James Lee, Executive Vice President, Population-based Care &amp; Chief Financial Officer</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Phoebe Putney Health System | LinkedIn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.nj.gov/health/about/njdoh/leadership/</t>
+          <t>https://www.linkedin.com/company/phoebe-putney-memorial-hospital</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1256,17 +1250,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Our Leadership | UCSF Benioff Children's Hospitals</t>
+          <t>Phoebe Worth Medical Center opens expanded and renovated ...</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.ucsfbenioffchildrens.org/about/our-leadership</t>
+          <t>https://www.walb.com/2023/12/06/phoebe-worth-medical-center-opens-expanded-renovated-emergency-center/</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Vanessa Roshell-Stacks, MHA, Vice President, Ancillary and Support Services, UCSF Benioff Children's Hospital Oakland</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -1276,52 +1270,54 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JACKSON MEMORIAL HOSPITAL</t>
+          <t>NORTHEAST GEORGIA MEDICAL CENTER BARROW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jackson Memorial Hospital | 24/7 Emergency Services in Miami</t>
+          <t>System Administration - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://jacksonhealth.org/locations/jackson-memorial-hospital/</t>
+          <t>https://www.nghs.com/administration</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Antonio Rios MD Chief of Population Health</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Milbank Memorial Fund | Using Evidence to Improve Population ...</t>
+          <t>Patient Care Services Staffing Support During a Pandemic - PMC</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.milbank.org/</t>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7529369/</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Brenda Baird Simpson, DNP, RN, CENP, is vice president and chief nursing executive, Maria O. Whitt, MHSM, BSN, RN, NEA-BC, is director nursing excellence.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Executive Team | Jackson Health System</t>
+          <t>News Archive - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://jacksonhealth.org/administrative/executive-team/</t>
+          <t>https://www.nghs.com/about/news-updates/archive</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Barbara Fonte, VP Population Health</t>
+          <t>Kalpana Prasad, MD, Program Director for Psychiatry Physician Residency Program,  
+Francis Nuthalapaty, MD, Program Director for Obstetrics and Gynecology Physician Residency,  
+Josh Mugele, MD, Program Director for Emergency Medicine Physician Residency</t>
         </is>
       </c>
     </row>
@@ -1331,17 +1327,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CITRUS MEMORIAL HOSPITAL</t>
+          <t>PIEDMONT WALTON HOSPITAL, INC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Citrus County Health Department</t>
+          <t>Piedmont Walton Hospital Leadership Staff | Piedmont Healthcare</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://citrus.floridahealth.gov/</t>
+          <t>https://www.piedmont.org/locations/piedmont-walton/leadership</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1351,12 +1347,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Florida Department of Health</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1366,12 +1362,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Public Health – Seattle &amp; King County - King County, Washington</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.kingcounty.gov/en/dept/dph</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1386,17 +1382,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASCENSION SACRED HEART PENSACOLA</t>
+          <t>ADVENTHEALTH MURRAY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ascension Sacred Heart Pensacola | Ascension</t>
+          <t>AdventHealth Leadership</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://healthcare.ascension.org/locations/florida/flpen/pensacola-ascension-sacred-heart-pensacola</t>
+          <t>https://www.adventhealth.com/adventhealth-leadership</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1406,28 +1402,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ascension Florida Leadership | Ascension</t>
+          <t>Hospital Leadership</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://about.ascension.org/about-us/leadership/florida-leadership</t>
+          <t>https://www.orlandohealth.com/about-us/leadership</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Unusual behavior notice: Webpage: 
- A timeout occurred Error code 524 Visit cloudflare.com for more information. 2024-07-25 16:42:07 UTC You Browser Working Chicago Cloudflare Working r.jina.ai Host Error What happened? The origin web server timed out responding to this request. What can I do? If you're a visitor of this website: Please try again in a few minutes. If you're the owner of this website: The connection to the origin web server was made, but the origin web server timed out before responding. The likely cause is an overloaded background task, database or application, stressing the resources on your web server. To resolve, please work with your hosting provider or web development team to free up resources for your database or overloaded application. Additional troubleshooting information here. Cloudflare Ray ID: 8a8d9785eba162fd Performance &amp; security by Cloudflare.</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Escambia - Santa Rosa Community Health Needs Assessment</t>
+          <t>AdventHealth | A Leader in Whole-Person Health Care</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://healthcare.ascension.org/-/media/healthcare/compliance-documents/florida/2018-chna-ascension-sacred-heart-pensacola.pdf</t>
+          <t>https://www.adventhealth.com/</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1442,17 +1437,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASCENSION SACRED HEART BAY</t>
+          <t>UNION GENERAL HOSPITAL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ascension Sacred Heart Bay - CHNA Report 2021</t>
+          <t>Senior Leadership - Union General Health System</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://healthcare.ascension.org/-/media/healthcare/compliance-documents/florida/2021-chna-ascension-sacred-heart-bay.pdf</t>
+          <t>https://uniongeneralhealthsystem.com/senior-leadership/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1462,12 +1457,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ascension Florida Leadership | Ascension</t>
+          <t>ASTHO: Association of State and Territorial Health Officials</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://about.ascension.org/about-us/leadership/florida-leadership</t>
+          <t>https://www.astho.org/</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1477,12 +1472,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ascension Sacred Heart Bay | Ascension</t>
+          <t>Recent Recognitions - Union General Health System</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://healthcare.ascension.org/locations/florida/flpen/panama-city-ascension-sacred-heart-bay</t>
+          <t>https://uniongeneralhealthsystem.com/recent-recognitions/</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1497,32 +1492,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PARRISH MEDICAL CENTER</t>
+          <t>FLOYD MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Governance and Leadership | Parrish Healthcare</t>
+          <t>Leadership | UW Medicine</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.parrishhealthcare.com/about-us/governance-and-leadership/</t>
+          <t>https://www.uwmedicine.org/about/leadership</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Pranika Laing – Interim Associate Vice President for UW Medicine Primary Care and Population Health, Michael Myint, MD – Chief Population Health Officer, UW Medicine</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parrish Medical Center Becomes a Cleveland Clinic Connected ...</t>
+          <t>Leadership - ECU Health</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://newsroom.clevelandclinic.org/2024/03/07/parrish-medical-center-becomes-a-cleveland-clinic-connected-member</t>
+          <t>https://www.ecuhealth.org/about-us/system-of-care/leadership/</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1532,12 +1527,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Site Map | Parrish Healthcare</t>
+          <t>COMMUNITY HEALTH NEEDS ASSESSMENT</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.parrishhealthcare.com/site-map/</t>
+          <t>https://www.floyd.org/about-floyd/Documents/2021-CHNA-Floyd-final.pdf</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1552,17 +1547,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NORTH SHORE MEDICAL CENTER</t>
+          <t>PIEDMONT COLUMBUS REGIONAL MIDTOWN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Board of Trustees | Salem Hospital | Mass General Brigham</t>
+          <t>Community Health Needs Assessment | Piedmont Columbus ...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://salem.massgeneralbrigham.org/about_us/board_of_trustees</t>
+          <t>https://www.piedmont.org/media/file/2022-11-PCR-Community-Health-Needs-Assessment.pdf</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1572,12 +1567,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Leadership | Endeavor Health</t>
+          <t>2024 Residency Matches | Harrison College of Pharmacy</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.endeavorhealth.org/leadership</t>
+          <t>https://pharmacy.auburn.edu/news/2023-24/042524-residencies.php</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1587,12 +1582,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Senior leadership at Northwell Health</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.northwell.edu/about/leadership</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1607,32 +1602,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORLANDO HEALTH-HEALTH CENTRAL HOSPITAL</t>
+          <t>HOUSTON MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Orlando Health Leadership Team</t>
+          <t>Fernandez and Cain appointed to new leadership positions to ...</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://sph.uth.edu/news/story/fernandez-and-cain-appointed-to-new-leadership-positions-to-bolster-population-health-and-faculty-development</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>- Maria E. Fernández, PhD, vice president of Population Health and Implementation Science
+- Lisa D. Cain, PhD, associate vice president of Faculty Affairs and Development</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orlando Health</t>
+          <t>Harris County Public Health</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://careers.orlandohealth.com/</t>
+          <t>https://publichealth.harriscountytx.gov/</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1642,17 +1638,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Brandon Burket</t>
+          <t>Dallas Campus - UTHealth Houston School of Public Health</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership/brandon-burket</t>
+          <t>https://sph.uth.edu/campuses/dallas</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Brandon Burket, Vice President, Value-Based Care and Population Health</t>
+          <t>Serwaa Omowale, PhD, LMSW, MPH, assistant professor, Caitlin C. Murphy, PhD, MPH, Marlyn Allicock, PhD, MPH, Marianne Olaniran, MS, MPH</t>
         </is>
       </c>
     </row>
@@ -1662,17 +1658,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BAYFRONT HEALTH - ST PETERSBURG</t>
+          <t>APPLING HOSPITAL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Orlando Health Leadership Team</t>
+          <t>Appling Healthcare names new CNO - Appling Healthcare</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://www.ahcs.org/appling-healthcare-names-new-cno/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1682,12 +1678,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bayfront Health St. Petersburg Names Gilbert COO, AVP</t>
+          <t>Appling Healthcare | Baxley GA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.bayfronthealth.com/content-hub/bayfront-health-st-petersburg-names-gilbert-coo-avp</t>
+          <t>https://www.facebook.com/applinghealthcare/</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1697,12 +1693,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>How is it going at Bayfront Health St. Petersburg? City officials have ...</t>
+          <t>Appling Healthcare CEO submits resignation to Hospital Authority ...</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.tampabay.com/health/how-is-it-going-at-bayfront-health-st-petersburg-city-officials-have-questions-20190429/</t>
+          <t>https://www.ahcs.org/appling-healthcare-ceo-submits-resignation-to-hospital-authority/</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1717,32 +1713,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MOUNT SINAI MEDICAL CENTER</t>
+          <t>DORMINY MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Department of Population Health - Health Policy | Icahn School of ...</t>
+          <t>Departments - Dorminy Medical Center</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://icahn.mssm.edu/about/departments/population-health</t>
+          <t>https://www.dorminymedical.org/about/departments</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Annetine C. Gelijns, PhD, Professor and Chairman of the Department of Population Health Science and Policy, Alan J. Moskowitz, MD, Co-Chair of the Department of Population Health Science and Policy and Co-director of the International Center for Health Outcomes and Innovation Research (InCHOIR)</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Executive Leadership | Mount Sinai - New York</t>
+          <t>Rural hospital now thriving as others close - College of Public ...</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mountsinai.org/about/executive-leadership</t>
+          <t>https://publichealth.uga.edu/rural-hospital-now-thriving-as-others-close/</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1752,23 +1748,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>About - MSHP - Mount Sinai Health Partners</t>
+          <t>Dorminy Medical Center</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://mshp.mountsinai.org/web/mshp/about</t>
+          <t>https://www.dorminymedical.org/fileadmin/Files/Dorminy/Transparency_Documents/HTR_Organizational_Chart.pdf</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>- Brent Estes, Senior Vice President, Chief Managed Care Officer and Chief Population Health Officer, MSHS
-- Arshad K. Rahim, MD, MBA, FACP, Senior Vice President and Chief Medical Officer, Population Health, Mount Sinai Health System
-- Maria Basso Lipani, MSW, LCSW, Vice President for Care Management and Population Health, MSHP
-- Xisui Shirley Chen, MD, MS, Medical Director, Clinical Integration, Mount Sinai Health Partners and Assistant Professor of General Internal Medicine, Icahn School of Medicine at Mount Sinai
-- Anitha Iyer, PhD, Director of Behavioral Health Population Management, MSHP &amp; Associate Professor of Psychiatry, ISMMS
-- Kenneth Shen, MD, MBA, Medical Director, Physician Engagement and Clinical Integration, Mount Sinai Health Partners  
-Assistant Professor, Division of Pediatrics</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -1778,54 +1768,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MANATEE MEMORIAL HOSPITAL</t>
+          <t>PIEDMONT ATHENS REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Internal Medicine Residency Program | Manatee Memorial Hospital</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.manateememorial.com/graduate-medical-education/internal-medicine-residency-program</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Unusual behavior notice: Webpage: 
- The request could not be satisfied. Request blocked. We can't connect to the server for this app or website at this time. There might be too much traffic or a configuration error. Try again later, or contact the app or website owner. If you provide content to customers through CloudFront, you can find steps to troubleshoot and help prevent this error by reviewing the CloudFront documentation..</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sarasota Memorial Administrators</t>
+          <t>Outreach News Archives - College of Public Health UGA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.smh.com/Home/About-Us/Administrators</t>
+          <t>https://publichealth.uga.edu/category/outreach-news/</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>James Fiorica, MD, Chief Medical Officer</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Welcome to Manatee Memorial Hospital | Bradenton, FL</t>
+          <t>Piedmont Athens Regional | Athens, GA Hospital | Piedmont ...</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.manateememorial.com/</t>
+          <t>https://www.piedmont.org/locations/piedmont-athens/about</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Unusual behavior notice: Webpage: 
- The request could not be satisfied. Request blocked. We can't connect to the server for this app or website at this time. There might be too much traffic or a configuration error. Try again later, or contact the app or website owner. If you provide content to customers through CloudFront, you can find steps to troubleshoot and help prevent this error by reviewing the CloudFront documentation..</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -1835,52 +1823,52 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEMORIAL REGIONAL HOSPITAL</t>
+          <t>EAST GEORGIA REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Memorial Regional Hospital: A Leader in Care Coordination and ...</t>
+          <t>SGMC Promotes Members of Leadership Team - SGMC Health</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://monumenthealth.net/memorial-regional-hospital-a-leader-in-care-coordination-and-population-health-management/</t>
+          <t>https://www.sgmc.org/sgmc-promotes-members-of-leadership-team/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Paula Belcher, Director of Population Health Management and Analytics</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>About</t>
+          <t>Region IV Public Health Training Center: R4PHTC Home</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.mhs.net/about</t>
+          <t>https://r4phtc.org/</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Kentucky Population Health Institute, Community-Based Training Partner</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Cone Health Leadership | Cone Health</t>
+          <t>System Administration - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.conehealth.com/about-us/leadership/</t>
+          <t>https://www.nghs.com/administration</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Danielle Phelps Swartz, Vice President Population Health</t>
+          <t>Antonio Rios MD Chief of Population Health</t>
         </is>
       </c>
     </row>
@@ -1890,32 +1878,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BROWARD HEALTH MEDICAL CENTER</t>
+          <t>EMORY DECATUR HOSPITAL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Broward Health Welcomes New Leader To Executive Team</t>
+          <t>Jen Schuck named CEO of Emory Decatur Hospital, Emory ...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.browardhealth.org/news/news-articles/032624-broward-health-welcomes-new-leader-to-executive-team</t>
+          <t>https://news.emory.edu/stories/2023/05/hs_jen_schuck_named_ceo_edh_ehh_eltac_17-05-2023/story.html</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Melida Akiti, Corporate Transformation Executive</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gastroenterology Fellowship Program| Broward Health</t>
+          <t>Rollins School of Public Health</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://gme.browardhealth.org/program-category/fellowship/program/gastroenterology</t>
+          <t>https://sph.emory.edu/</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1925,12 +1913,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Who We Are | Broward Health</t>
+          <t>Emory Decatur Hospital unveils multimillion dollar renovation of ...</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.browardhealth.org/who-we-are</t>
+          <t>https://news.emory.edu/stories/2024/05/hs_edh_behavioral_health_services_renovation_30-05-2024/story.html</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1945,17 +1933,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASCENSION ST VINCENT'S RIVERSIDE</t>
+          <t>EMORY UNIVERSITY HOSPITAL MIDTOWN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ascension St. Vincent's Riverside | Ascension</t>
+          <t>Internal Medicine Residency | Emory School of Medicine</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://healthcare.ascension.org/locations/florida/fljac/jacksonville-ascension-st-vincents-riverside</t>
+          <t>https://med.emory.edu/departments/medicine/education/residency-program/index.html</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1965,12 +1953,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ascension Florida Leadership | Ascension</t>
+          <t>Heather Dexter and Matt Wain appointed to new Emory Healthcare ...</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://about.ascension.org/about-us/leadership/florida-leadership</t>
+          <t>https://news.emory.edu/stories/2023/10/hs_dexter_wain_ehc_regionalized_hospital_structure_05-10-2023/story.html</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1980,12 +1968,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Ascension St. Vincent's hospitals in Jacksonville and Clay get new ...</t>
+          <t>Executive Leadership and Board of Directors Leadership at Emory ...</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.jacksonville.com/story/news/healthcare/2024/04/18/ascension-st-vincents-hospitals-in-jacksonville-and-clay-get-new-ceos/73368489007/</t>
+          <t>https://www.emoryhealthcare.org/about/executive-staff</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2000,17 +1988,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEASE DUNEDIN HOSPITAL</t>
+          <t>GRADY MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BayCare Leadership</t>
+          <t>Our Leadership | Grady Health</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://baycare.org/about-us/baycare-leadership</t>
+          <t>https://www.gradyhealth.org/about-us/our-leadership/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2020,27 +2008,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
+          <t>Leadership | OhioHealth</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
+          <t>https://www.ohiohealth.com/about-us/leadership</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Hospital Leadership at Mease Dunedin Hospital</t>
+          <t>Health Equity Office | Grady Health</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://baycare.org/locations/hospitals/mease-dunedin-hospital/about-us/hospital-leadership</t>
+          <t>https://www.gradyhealth.org/about-us/health-equity/</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2055,32 +2043,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLEVELAND CLINIC MARTIN NORTH HOSPITAL</t>
+          <t>SAINT JOSEPH'S HOSPITAL OF ATLANTA, INC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Executive Leadership | Cleveland Clinic</t>
+          <t>Leadership at Loyola Medicine | Loyola Medicine</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://my.clevelandclinic.org/about/overview/leadership/executive</t>
+          <t>https://www.loyolamedicine.org/about-us/leadership/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Keith Veselik, MD, Regional Vice President, Population Health</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cleveland Clinic Taps Claude Jones to Lead Primary Care Institute</t>
+          <t>Emory Saint Joseph's Hospital, Atlanta</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://newsroom.clevelandclinic.org/2024/06/13/cleveland-clinic-taps-claude-jones-to-lead-primary-care-institute</t>
+          <t>https://www.emoryhealthcare.org/locations/hospitals/emory-saint-josephs-hospital</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2090,17 +2078,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Community Health Needs Assessment - 2021</t>
+          <t>Leadership | UConn Health</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://my.clevelandclinic.org/-/scassets/files/org/florida/locations/chna-2021-reports/martin-health-final-10-5-21.pdf?la=en</t>
+          <t>https://health.uconn.edu/about/leadership</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Khadija Poitras-Rhea, Associate Vice President Population Health</t>
         </is>
       </c>
     </row>
@@ -2110,17 +2098,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH DELAND</t>
+          <t>PIEDMONT HOSPITAL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2130,12 +2118,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Jill Piazza, PT, DPT - VP, Chief Operating Officer - AdventHealth ...</t>
+          <t>Industry Focus Reports | Page 5 | HealthLeaders Media</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jill-piazza-pt-dpt-1b74982b</t>
+          <t>https://www.healthleadersmedia.com/industry-focus-reports?page=4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2145,17 +2133,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>AdventHealth DeLand - 2020-2022 COMMUNITY HEALTH PLAN</t>
+          <t>West Piedmont Health District Receives "Project Public Health ...</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/sites/default/files/assets/2020-2022-Community-Health-PlanDeland-FINAL.pdf</t>
+          <t>https://www.vdh.virginia.gov/news/2024-regional-news-releases/west-piedmont-health-district-receives-project-public-health-ready-recognition/</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Nancy Bell, Population Health Manager</t>
         </is>
       </c>
     </row>
@@ -2165,47 +2153,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH ZEPHYRHILLS</t>
+          <t>WASHINGTON COUNTY REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Adirondack Rural Health Network - AHI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://ahihealth.org/arhn/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Andrea Bonacci, Director of Population Health Programs</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Jobs | AdventHealth</t>
+          <t>Public Health leadership | Clark County</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://jobs.adventhealth.com/</t>
+          <t>https://clark.wa.gov/public-health/public-health-leadership</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Andrea Pruett, Community Health Director</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Who We Are | AdventHealth Zephyrhills</t>
+          <t>Public Health – Seattle &amp; King County - King County, Washington</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/hospital/adventhealth-zephyrhills/who-we-are</t>
+          <t>https://www.kingcounty.gov/en/dept/dph</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2220,32 +2208,33 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BAYFRONT HEALTH PUNTA GORDA</t>
+          <t>NORTHSIDE HOSPITAL GWINNETT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Charlotte County - Community Health and Needs Assessment</t>
+          <t>About | Northside Hospital</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/provider-and-partner-resources/community-partnerships/floridamapp/state-and-community-reports/charlotte-county/_documents/Charlotte_CHA2.pdf</t>
+          <t>https://www.northside.com/about</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ Verifying you are human. This may take a few seconds. www.northside.com needs to review the security of your connection before proceeding..</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bayfront Health St. Petersburg becomes USF Health's newest ...</t>
+          <t>Job Search Results - Northside Hospital Careers</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://hscweb3.hsc.usf.edu/blog/2015/09/01/bayfront-health-st-petersburg-becomes-usf-healths-newest-affiliate-in-pinellas-county/</t>
+          <t>https://jobs.northside.com/job-search-results/</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2255,12 +2244,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Community Health Improvement Plan 2019-2020</t>
+          <t>Northside Hospital Gwinnett | Northside Hospital</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://charlotte.floridahealth.gov/programs-and-services/community-health-planning-and-statistics/community-health-improvement-partnership/_documents/Charlotte_CHIP.pdf</t>
+          <t>https://www.northside.com/locations/northside-hospital-gwinnett</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2275,32 +2264,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JAY HOSPITAL</t>
+          <t>COFFEE REGIONAL MEDICAL CENTER, INC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cone Health Leadership | Cone Health</t>
+          <t>2022 Community Health Needs Assessment</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.conehealth.com/about-us/leadership/</t>
+          <t>https://www.coffeeregional.org/wp-content/uploads/2023/01/2022-CHNA-Report-FINAL-REV.pdf</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Danielle Phelps Swartz, Vice President Population Health</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Leadership - ECU Health</t>
+          <t>Coffee Regional Medical Center - NQIIC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.ecuhealth.org/about-us/system-of-care/leadership/</t>
+          <t>https://quality.allianthealth.org/coffee-regional-medical-center/</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2310,12 +2299,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>IU Health Leadership | IU Health</t>
+          <t>Coffee Regional Medical Center | To Serve. To Heal. To Save.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://iuhealth.org/about-our-system/iu-health-leadership</t>
+          <t>https://www.coffeeregional.org/</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2330,17 +2319,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HIGHLANDS REGIONAL MEDICAL CENTER</t>
+          <t>PIEDMONT ROCKDALE HOSPITAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UW School of Medicine and Public Health - School of Medicine and ...</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.med.wisc.edu/</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2350,27 +2339,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HCA Completes $1.5B Mission Health Acquisition | HealthLeaders ...</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.healthleadersmedia.com/strategy/hca-completes-15b-mission-health-acquisition</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Ronald A. Paulus, MD, President and CEO</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Executive Leadership | Southern California | Dignity Health | Dignity ...</t>
+          <t>Piedmont Rockdale Hospital to Open Public, Walking Path on ...</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.dignityhealth.org/socal/about-us/executive-leadership</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/media-room/stories/news-article?story=4823</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2385,17 +2374,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LARKIN COMMUNITY HOSPITAL PALM SPRINGS CAMPUS</t>
+          <t>DODGE COUNTY HOSPITAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>About | Larkin Health</t>
+          <t>Dodge County Hospital Foundation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://larkinhealth.com/en/about/</t>
+          <t>https://www.dodgecountyhospital.com/getpage.php?name=Foundation</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2405,27 +2394,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Meet our Program Director-Hospice and Palliative Medicine-PSC ...</t>
+          <t>UnityPoint Health Leadership</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.graduatemedicaleducation.org/meet-our-program-director-hospice-and-palliative-medicine-psc/</t>
+          <t>https://www.unitypoint.org/about-unitypoint-health/our-organization/leadership</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Scott Kizer, President &amp; CEO</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Larkin Health System Integrated Healthcare Delivery System</t>
+          <t>Jan Hamrick of Dodge County Hospital awarded "2019 CFO of the ...</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://larkinhealth.com/en/</t>
+          <t>https://www.dodgecountyhospital.com/getpage.php?name=CFO_of_the_Year</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2440,17 +2429,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ORLANDO HEALTH SOUTH LAKE HOSPITAL</t>
+          <t>TIFT REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Orlando Health Leadership Team</t>
+          <t>Community Health Assessment and Strategic Overview - SYSTEM ...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://mysouthwell.com/wp-content/uploads/2021/06/Southwell-System-CHNA-FINAL-Report-March-2021.pdf</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2460,12 +2449,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Orlando Health</t>
+          <t>Nonprofit Hospital Community Health Needs Assessments in Georgia</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://careers.orlandohealth.com/</t>
+          <t>https://www.georgiawatch.org/wp-content/uploads/2015/06/Formatted-CHNA-Report-06022015-FINAL.pdf</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2475,17 +2464,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Brandon Burket</t>
+          <t>Mary Black - University of North Carolina at Greensboro - Buford ...</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership/brandon-burket</t>
+          <t>https://www.linkedin.com/in/mmblack1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Brandon Burket, Vice President, Value-Based Care and Population Health</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -2495,17 +2484,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WINTER HAVEN HOSPITAL</t>
+          <t>JEFFERSON HOSPITAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Connecticut Department of Public Health</t>
+          <t>College of Population Health</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://portal.ct.gov/dph</t>
+          <t>https://www.jefferson.edu/academics/colleges-schools-institutes/population-health.html</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2515,12 +2504,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fort Yuma Service Unit | Healthcare Facilities</t>
+          <t>Contact &amp; Leadership - | Jefferson Healthcare</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.ihs.gov/phoenix/healthcarefacilities/fortyuma/</t>
+          <t>https://jeffersonhealthcare.org/contact-and-public-records/</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2530,12 +2519,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BayCare Leadership</t>
+          <t>Healthcare Leadership Academy for Women</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://baycare.org/about-us/baycare-leadership</t>
+          <t>https://www.jefferson.edu/academics/colleges-schools-institutes/population-health/professional-development/specialized-training-programs/population-health-academy-programs/healthcare-leadership-academy-for-women.html</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2550,17 +2539,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HIALEAH HOSPITAL</t>
+          <t>SOUTHWELL MEDICAL, A CAMPUS OF TRMC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jackson Memorial Hospital | 24/7 Emergency Services in Miami</t>
+          <t>Tift Regional Medical Center - Southwell</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://jacksonhealth.org/locations/jackson-memorial-hospital/</t>
+          <t>https://mysouthwell.com/tift-regional-medical-center/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2570,27 +2559,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Steward Health Care Adds Joe Deschryver As South Regional ...</t>
+          <t>Great health care options for Cook County Georgia</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.hialeahhosp.org/domain-specific/720191/newsroom/2021-06-21/steward-health-care-adds-joe-deschryver-south-regional-president</t>
+          <t>http://cookcountyedc.com/living_here/healthcare</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ Sorry you have been blocked You are unable to access jina.ai This website is using a security service to protect itself from online attacks The action you just performed triggered the security solution There are several actions that could trigger this block including submitting a certain word or phrase a SQL command or malformed data You can email the site owner to let them know you were blocked Please include what you were doing when this page came up and the Cloudflare Ray ID found at the bottom of this page Cloudflare Ray ID 8aa9cc1979348262 Your IP Click to reveal 209.198.254.117 Performance &amp; security by Cloudflare.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Michael Bell - Hackensack Meridian Pascack Valley Medical Center</t>
+          <t>Southwell: Home</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/mjbell</t>
+          <t>https://mysouthwell.com/</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2605,663 +2595,702 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TWIN CITIES HOSPITAL</t>
+          <t>CRISP REGIONAL HOSPITAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Patient Resources | Crisp Regional Hospital | Cordele, GA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://crispregional.org/patient-resources/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>USDA awards $1 million to Crisp Regional Hospital | Congressman ...</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>http://bishop.house.gov/media-center/in-the-news/usda-awards-1-million-to-crisp-regional-hospital</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Unusual behavior notice: Webpage: 
+ Sorry you have been blocked You are unable to access jina.ai This website is using a security service to protect itself from online attacks The action you just performed triggered the security solution There are several actions that could trigger this block including submitting a certain word or phrase a SQL command or malformed data You can email the site owner to let them know you were blocked Please include what you were doing when this page came up and the Cloudflare Ray ID found at the bottom of this page Cloudflare Ray ID 8aa9cc9a1ed4084b Your IP Click to reveal 209.198.254.117 Performance &amp; security by Cloudflare.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Crisp Regional Health, Inc. Selects Cerner Integrated EHR to ...</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://crispregional.org/crisp-regional-health-inc-selects-cerner-integrated-ehr-to-support-improved-patient-care/</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Mitch Hiers, director of IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>COLQUITT REGIONAL MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sterling Center Women's Health - Colquitt Regional Medical Center</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://colquittregional.com/sterling-center-womens-health/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>UGA Archway Partnership joins forces with College of Public Health ...</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://outreach.uga.edu/uga-report-helps-rural-healthcare-providers-prepare-for-covid-19-pandemic/</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Grace Bagwell Adams, Associate Professor, College of Public Health
+Sarah Adams, Archway Partnership Professional
+John Drake, Professor, Odum School of Ecology
+Andreas Handel, Professor, College of Public Health</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Accreditations, Awards and Recognition - Colquitt Regional Medical ...</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://colquittregional.com/home/about-us/accreditations-awards-and-recognition/</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MEDICAL CENTER, NAVICENT HEALTH (THE)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Advocate Health Names Executive Leadership Team</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://atriumhealth.org/about-us/newsroom/news/2022/12/advocate-health-names-executive-leadership-team</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Don Calcagno, MBA SVP, Chief Population Health Officer, Terry G. Williams, DrPH candidate, MBA SVP, Chief Population Health Officer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>American Hospital Association Recognizes Navicent Health with ...</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.aha.org/press-releases/2018-07-18-american-hospital-association-recognizes-navicent-health-2018-equity-care</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Atrium Health Leaders Named to Becker's “Black Healthcare ...</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://navicenthealth.org/community/single_news/atrium-health-leaders-named-to-becker-s-black-healthcare-leaders-to-know-2023</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Dr. Tiffany Victor, Vice President of Population Health and Care Management of Greater Charlotte Market of Atrium Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EMANUEL MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Public Health leadership | Clark County</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://clark.wa.gov/public-health/public-health-leadership</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>- Alan Melnick, MD, MPH, CPH, Director/Health Officer
+- Roxanne Wolfe, Deputy Director
+- Jeff Harbison, Administrative Services Director
+- Andrea Pruett, Community Health Director
+- Dana Nguyen BSN, RN, CIC, Investigation and Response Director</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Public Health - Leadership - City of Chicago</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.chicago.gov/city/en/depts/cdph/auto_generated/cdph_leadership.html</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Find a Doctor</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.emanuelmedicalcenter.org/find-a-doc</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UNIVERSITY HOSPITAL MCDUFFIE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rising stars: 67 healthcare leaders under 40</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.beckershospitalreview.com/lists/rising-stars-67-healthcare-leaders-under-40.html</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Community Health Needs Assessment | Piedmont McDuffie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.piedmont.org/media/file/2022-11-PMD-Community-Health-Needs-Assessment.pdf</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Georgetown Faculty, Students Testify in Support of Resolution to ...</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://gumc.georgetown.edu/gumc-stories/georgetown-faculty-students-testify-in-support-of-resolution-to-declare-racism-a-public-health-crisis-in-dc/</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Edward Healton, MD, MPH, Executive Vice President for Health Sciences; Christopher King, PhD, Associate Professor and Chair of the Department of Health Systems Administration; Michelle Roett, MD, MPH, Professor and Chair of the Department of Family Medicine; Vicki Girard, JD, Director of the Georgetown University Health Justice Alliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BURKE MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hospital CMO: 4 Ways to Stay Ahead of the Aging Population</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.healthleadersmedia.com/cmo/hospital-cmo-4-ways-stay-ahead-aging-population</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Division of Public Health Sciences – Wake Forest School of Medicine</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://school.wakehealth.edu/departments/public-health-sciences</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Kristie Foley, PhD, MS, Associate Director for Population Health Sciences, Comprehensive Cancer Center, Chair, Implementation Science, Vice Dean, Research Strategy and Integration, Professor, Implementation Science</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Community Memorial Hospital, Burke, SD</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://www.sanfordhealth.org/-/media/org/files/about/community-health-needs-assessment/2019-chna-final-report-community-memorial-burke-sd.pdf</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WELLSTAR ATLANTA MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Wellstar Executive Leadership</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Family Medicine | Kennestone Hospital – Wellstar Graduate Medical ...</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://gme.wellstar.org/kennestone/family-medicine/</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Overcoming obstacles: How one health system is creating a more ...</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://www.wellstar.org/articles/overcoming-obstacles-for-inclusive-healthcare-future</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Elise Lockamy-Kassim, AVP, Community Health &amp; Center for Health Equity, Wellstar Health System</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GRADY GENERAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Our Leadership | Grady Health</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.gradyhealth.org/about-us/our-leadership/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Leadership | OhioHealth</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.ohiohealth.com/about-us/leadership</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Grady Careers - Find Your Next Career Opportunity</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://www.gradyhealth.org/careers/</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SOUTH GEORGIA MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SGMC Health | Remarkable People. Extraordinary Care. Human ...</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.sgmc.org/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Morehouse School of Medicine - MSM - Atlanta</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.msm.edu/</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>South Georgia Medical Center Community Health Needs ...</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://www.sgmc.org/wp-content/uploads/2020/07/SGMC-2019-CHNA-for-MAIN.pdf</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>WAYNE MEMORIAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Leader at Wayne Memorial Community Health Centers, Norma ...</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.porh.psu.edu/leader-at-wayne-memorial-community-health-centers-norma-nocilla-receives-community-rural-health-leader-of-the-year-award/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Lisa Davis, Director of PORH and Outreach Associate Professor of Health Policy and Administration</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Population Health Team | AHA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.aha.org/center/population-health/about</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Natalie Dean-Wood, Director, Public Health Division
+Troy DeDecker, President-Central Region
+Andrés González, VP, Community Engagement &amp; Chief Diversity Officer
+Nicole Harris-Hollingsworth, VP, Social Determinants of Health
+Peter Holtgrave, Senior Director, Public Health Infrastructure and Systems
+Ji Im, System Senior Director, Community and Population Health
+Kristin (Kris) Juliar, Consultant
+Carey Justice Rothschild, Director, Community Health Policy and Strategy
+Lara Khouri, EVP, Chief Strategy and Transformation Officer
+Onora Lien, Executive Director
+Nancy Lim, Director, Community Health Improvement
+Petrina Martin Cherry, VP, Community Engagement &amp; External Affairs
+Lisa Nichols, Assistant VP, Community Health
+Marcos Pesquera, System VP, Health Equity, Diversity &amp; Inclusion and Community Benefit
+Raahat Ansari, Senior Program Manager
+Samantha Borow, Program Manager
+Inez Candelario, Program Specialist
+Danielle Coglianese, Senior Program Manager
+Ashley Hofmann, Senior Program Manager
+Andrew Jager, Director, Population Health
+Nancy Myers, VP, Leadership and System Innovation
+Adam Schrag, Senior Communications Specialist
+Sean Thornton, Program Manager
+Caroline Vianna, Program Manager</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>IU Health Leadership | IU Health</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://iuhealth.org/about-our-system/iu-health-leadership</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FAIRVIEW PARK HOSPITAL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hospital Leadership | Fairview Park Hospital</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fairviewparkhospital.com/about/hospital-leadership.dot</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Unusual behavior notice: Webpage: 
+ The target resource does not have a current representation that would be acceptable to the user agent, according to the proactive negotiation header fields received in the request, and the server is unwilling to supply a default representation..</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>HCA Healthcare: Giving People A Healthier Tomorrow</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://hcahealthcare.com/</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Unusual behavior notice: Webpage: 
+ HTTP Status 406 – Not Acceptable Type Status Report Description The target resource does not have a current representation that would be acceptable to the user agent, according to the proactive negotiation header fields received in the request, and the server is unwilling to supply a default representation. Apache Tomcat/8.5.32.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>About | Fairview Park Hospital</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://fairviewparkhospital.com/about/</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>none found</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MEADOWS REGIONAL MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Renown Leadership | Renown Health</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.renown.org/About/Leadership</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bethany Sexton, MBA Chief Executive Officer, Hometown Health
+, Gregory Walaitis, MA CHIEF DEVELOPMENT OFFICER</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Who We Are | Population Health | Providence</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.providence.org/about/initiatives/population-health/who-we-are</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Dr. Rhonda Medows, President, Providence Population Health Management, CEO, Ayin Health Solutions
+Tammy Wintrode, Senior Executive Assistant, Population Health Management
+Angela Marith, Chief of Staff, Population Health Management
+Robert Sheveland, Interim Chief Contracting Officer, Population Health
+Deepak Sadagopan, Senior Vice President, Value Based Care &amp; Population Health Informatics
+Roger Dowdy, Vice President, Mental Health Strategy
+Daneen Calvin, Chief Mission Officer, Population Health Management
+Ruth Krystopolski, President, Ayin Health Solutions</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>Executive Leadership Team at Allina Health</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>https://www.allinahealth.org/about-us/leadership</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Hsieng Su MD, Senior Vice President Chief Medical Executive 
 Dominica Tallarico, Executive Vice President and Chief Operating Officer 
 Elizabeth Truesdell Smith JD MPH, Senior Vice President General Counsel and Secretary to the Allina Health Board of Directors</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Executive Leadership - Hennepin Healthcare</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://www.hennepinhealthcare.org/about-us/executive-leadership/</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Wendy Stulac-Motzel, Chief Ambulatory and Population Health Officer</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Master of Healthcare Administration (MHA) - School of Public Health</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.sph.umn.edu/academics/degrees-programs/mha/</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ADVENTHEALTH NORTH PINELLAS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>AdventHealth Leadership</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2023 Best &amp; Brightest Executive MBA ... - Poets&amp;Quants for Execs</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://poetsandquantsforexecs.com/students/2023-best-brightest-executive-mba-ryan-quattlebaum-university-of-florida-warrington/</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>AdventHealth | A Leader in Whole-Person Health Care</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ADVENTHEALTH WATERMAN</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>AdventHealth Leadership</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2022-CHNA-Orange-County.pdf</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://orange.floridahealth.gov/programs-and-services/community-health-planning-and-statistics/_documents/2022-CHNA-Orange-County.pdf</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>AdventHealth | A Leader in Whole-Person Health Care</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ADVENTHEALTH OCALA</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>AdventHealth Leadership</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Patricia Price DNP, RN, NE-BC - Adventhealth Ocala | LinkedIn</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/patricia-price-dnp-rn-ne-bc-b782168a</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>AdventHealth | A Leader in Whole-Person Health Care</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MORTON PLANT NORTH BAY HOSPITAL</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BayCare Leadership</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://baycare.org/about-us/baycare-leadership</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Community Health Needs Assessment (CHNA) Implementation ...</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>https://baycare.org/-/media/project/baycare/consumer-portal/about-us/community-health-needs/chna-documents-2023/baycare-chna-implementation-plans-20232025-pasco.pdf</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Unusual behavior notice: Webpage: 
- AssertionFailureError Failed to goto https baycare org - media project baycare consumer portal about us community health needs chna documents 2023 baycare chna implementation plans 20232025 pasco pdf Error net ERR ABORTED at https baycare org - media project baycare consumer portal about us community health needs chna documents 2023 baycare chna implementation plans 20232025 pasco pdf.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ST ANTHONYS HOSPITAL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>BayCare Leadership</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://baycare.org/about-us/baycare-leadership</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>About Us at HSHS St. Anthony's Memorial Hospital</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://www.hshs.org/st-anthonys/about-us</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Leadership Team - Saint Anthony Hospital - Chicago</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>https://sahchicago.org/about-us/leadership-team</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ADVENTHEALTH DAYTONA BEACH</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>AdventHealth Leadership</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>AdventHealth plans $220M expansion of Daytona Beach hospital</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://www.chiefhealthcareexecutive.com/view/adventhealth-plans-220m-expansion-of-daytona-beach-hospital</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>AdventHealth Daytona Beach* - 2019 COMMUNITY HEALTH ...</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/sites/default/files/assets/2019_CHNA_AdventHealth_Daytona_Beach.pdf</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ADVENTHEALTH CARROLLWOOD</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>AdventHealth Leadership</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Jobs | AdventHealth</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://jobs.adventhealth.com/</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Who We Are | AdventHealth Carrollwood</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/hospital/adventhealth-carrollwood/who-we-are</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>VENICE REGIONAL MEDICAL CENTER - BAYFRONT HEALTH</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kelly Enriquez hired as new Venice Regional Bayfront Health CEO</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://www.heraldtribune.com/story/news/local/venice/2020/10/02/kelly-enriquez-hired-new-venice-regional-bayfront-health-ceo/5894618002/</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Two top leaders resign from Bayfront Health St. Petersburg</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.tampabay.com/health/medical-news/two-top-leaders-resign-from-bayfront-health-st-petersburg-20190213/</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Unusual behavior notice: Webpage: 
- SecurityCompromiseError Domain www.tampabay.com blocked until Thu Jul 25 2024 17:47:36 GMT+0000 Coordinated Universal Time due to previous abuse found on https://www.tampabay.com/health/how-is-it-going-at-bayfront-health-st-petersburg-city-officials-have-questions-20190429/ DDoS attack suspected Too many requests.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>BAYFRONT HEALTH BROOKSVILLE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Careers</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://www.bayfronthealth.com/about-us/careers</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Bayfront Health St. Petersburg becomes USF Health's newest ...</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://hscweb3.hsc.usf.edu/blog/2015/09/01/bayfront-health-st-petersburg-becomes-usf-healths-newest-affiliate-in-pinellas-county/</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ADVENTHEALTH FISH MEMORIAL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>AdventHealth Leadership</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Lisa Gore - Greater New Orleans Region | Professional Profile ...</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/lisa-gore-710021171</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2020-2022 Community Health Plan</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.adventhealth.com/sites/default/files/assets/2020-2022_Community_Health_Plan_Fish_Memorial_FINAL.pdf</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>HOLY CROSS HOSPITAL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Sitemap</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.trinity-health.org/sitemap.aspx</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Holy Cross Health Names Norvell V. Coots, M.D., as President and ...</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://www.holycrosshealth.org/newsroom/press-releases/holy-cross-health-names-norvell-v-coots-m.d-as-president-and-ceo</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Patrick A. Taylor, MD, MBA, leaving as CEO of Holy Cross Hospital ...</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.holy-cross.com/newsroom/press-releases/patrick-taylor-md-mba-leaving-ceo-holy-cross-hospital</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>none found</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3269,32 +3298,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ST JOSEPHS HOSPITAL</t>
+          <t>ST FRANCIS HOSPITAL- EMORY HEALTHCARE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Leadership | St. Joseph's Health Syracuse, New York (NY) Hospitals</t>
+          <t>St. Francis Hospital hosts Emory Healthcare and LifePoint Health ...</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.sjhsyr.org/about-us/leadership</t>
+          <t>https://news.emory.edu/stories/2020/02/st_francis_brand_unveil_ehc_lifepoint_jv/index.html</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Kristen M Mucitelli, VP Population Health Management</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>"Economic Development is Population Health": A New Vision for ...</t>
+          <t>Careers, Job Openings and Employee Benefits at Emory Healthcare</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://www.ruralhealthinfo.org/rural-monitor/economic-development</t>
+          <t>https://www.emoryhealthcare.org/careers</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3304,12 +3333,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Our Leaders | Essentia Health</t>
+          <t>February 2020 Stories | Emory University | Atlanta GA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.essentiahealth.org/about/our-leaders</t>
+          <t>https://news.emory.edu/stories/2020/02/index.html</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3324,17 +3353,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BAYFRONT HEALTH PORT CHARLOTTE</t>
+          <t>IRWIN COUNTY HOSPITAL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
+          <t>Irwin Army Community Hospital &gt; About Us &gt; Leadership</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
+          <t>https://irwin.tricare.mil/About-Us/Leadership</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3344,12 +3373,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Charlotte County - Community Health and Needs Assessment</t>
+          <t>Media invited Wednesday to observe best leaders competing at Fort ...</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/provider-and-partner-resources/community-partnerships/floridamapp/state-and-community-reports/charlotte-county/_documents/Charlotte_CHA2.pdf</t>
+          <t>https://www.1id.army.mil/Newsroom/Display/Article/3351344/media-invited-wednesday-to-observe-best-leaders-competing-at-fort-riley/</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3359,17 +3388,18 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>College Leadership » College of Public Health &amp; Health Professions ...</t>
+          <t>How Healthy Is Irwin County, Georgia? | US News Healthiest ...</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://phhp.ufl.edu/about-phhp/college-leadership/</t>
+          <t>https://www.usnews.com/news/healthiest-communities/georgia/irwin-county</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ SecurityCompromiseError Domain www.usnews.com blocked until Mon Jul 29 2024 03:20:23 GMT+0000 Coordinated Universal Time due to previous abuse found on https://www.usnews.com/news DDoS attack suspected Too many requests.</t>
         </is>
       </c>
     </row>
@@ -3379,17 +3409,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>UNIV OF MIAMI HOSPITAL AND CLINICS-SYLVESTER COMPR</t>
+          <t>MEMORIAL HOSPITAL AND MANOR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>University of Miami Health System | South Florida Health Care ...</t>
+          <t>Administrative Fellowship</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://umiamihealth.org/en/</t>
+          <t>https://www.mhs.net/careers/administrative-fellowship</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3399,12 +3429,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Miller School of Medicine</t>
+          <t>2019 Community Health Needs Assessment</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://med.miami.edu/</t>
+          <t>https://www.mh-m.org/wp-content/uploads/2021/06/2019-Community-Needs-Assessment1.pdf</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3414,12 +3444,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Leadership | University of Miami Health System</t>
+          <t>About</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://umiamihealth.org/en/about-uhealth/leadership</t>
+          <t>https://www.mhs.net/about</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3434,47 +3464,47 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JFK MEDICAL CENTER</t>
+          <t>TAYLOR REGIONAL HOSPITAL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Leadership | Hackensack Meridian Health</t>
+          <t>Case Study: Taylor Regional Hospital's Van Program Increases ...</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.hackensackmeridianhealth.org/en/about-us/leadership</t>
+          <t>https://www.aha.org/news/insights-and-analysis/2018-01-18-case-study-taylor-regional-hospitals-van-program-increases</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Patrick Young, President Population Health Solutions</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Workforce Development Projects | MCHB</t>
+          <t>Taylor Regional Hospital</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://mchb.hrsa.gov/programs-impact/focus-areas/mch-workforce-development/funded-project</t>
+          <t>https://www.trhosp.org/</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dorothy Cilenti, DrPH, MPH, MSW, Project Director</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>JFK University Medical Center | Hackensack Meridian Health ...</t>
+          <t>Taylor Regional Hospital rebounds and expands with UGA partnership</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.hackensackmeridianhealth.org/en/locations/jfk-university-medical-center</t>
+          <t>https://www.archwaypartnership.uga.edu/taylor-regional-hospital-rebounds-and-expands-following-partnership-with-uga/</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3489,52 +3519,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HEALTHMARK REGIONAL MEDICAL CENTER</t>
+          <t>EVANS MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Leadership | Valley Health</t>
+          <t>Services | Evans Memorial Hospital</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.valleyhealthlink.com/about-us/leadership/</t>
+          <t>https://www.evansmemorialhospital.org/services</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mark Nantz, President and CEO</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leadership | Hackensack Meridian Health</t>
+          <t>Leadership: Meet MedStar Health Leaders | MedStar Health</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://www.hackensackmeridianhealth.org/en/about-us/leadership</t>
+          <t>https://www.medstarhealth.org/about/medstar-health-leadership</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Patrick Young, President Population Health Solutions</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Hospital Leadership</t>
+          <t>Evans Army Community Hospital</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://evans.tricare.mil/</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>**Dr. (LTC) Michael J. O'Brien, Chief, Population Health Management**</t>
         </is>
       </c>
     </row>
@@ -3544,17 +3574,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>UF HEALTH LEESBURG HOSPITAL</t>
+          <t>WELLSTAR COBB HOSPITAL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>UF Health Leadership - About UF Health - UF Health</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://ufhealth.org/about-uf-health/uf-health-leadership</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3564,12 +3594,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Special report: COVID-19 - The POST</t>
+          <t>Search Jobs and Careers in Healthcare with Wellstar Health System</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://post.health.ufl.edu/2021/02/01/special-report-covid-19/</t>
+          <t>https://careers.wellstar.org/</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3579,17 +3609,18 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>About UF Health - UF Health</t>
+          <t>2016 Community Health Needs Assessment IMPLEMENTATION</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://ufhealth.org/about-uf-health</t>
+          <t>https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ AssertionFailureError Failed to goto https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a Error net::ERR_ABORTED at https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a.</t>
         </is>
       </c>
     </row>
@@ -3599,17 +3630,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BROWARD HEALTH NORTH</t>
+          <t>SOUTHEAST GEORGIA HEALTH SYSTEM- CAMDEN CAMPUS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Who We Are | Broward Health</t>
+          <t>Executive Team | Southeast Georgia Health System</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.browardhealth.org/who-we-are</t>
+          <t>https://www.sghs.org/about-us/leadership/executive-team/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3619,12 +3650,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gastroenterology Fellowship Program| Broward Health</t>
+          <t>Coastal Georgia, SGHS Employees Recognized for Leadership ...</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://gme.browardhealth.org/program-category/fellowship/program/gastroenterology</t>
+          <t>https://www.ccga.edu/gcca-news/coastal-georgia-sghs-employees-recognized-for-leadership-development/</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3634,17 +3665,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Broward Health Welcomes New Leader To Executive Team</t>
+          <t>Southeast Georgia Health System | Brunswick &amp; Camden Georgia</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.browardhealth.org/news/news-articles/032624-broward-health-welcomes-new-leader-to-executive-team</t>
+          <t>https://www.sghs.org/</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Melida Akiti, Corporate Transformation Executive</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -3654,32 +3685,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SARASOTA MEMORIAL HOSPITAL</t>
+          <t>NAVICENT HEALTH BALDWIN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sarasota Memorial Administrators</t>
+          <t>Meet Our Executive Team: Atrium Health Navicent Baldwin | Atrium ...</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.smh.com/Home/About-Us/Administrators</t>
+          <t>https://navicenthealth.org/service-center/navicent-health-baldwin/meet-our-executive-team</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>James Fiorica, MD, Chief Medical Officer</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Keys to Managing Transitions of Care | HealthLeaders Media</t>
+          <t>2020 COMMUNITY HEALTH NEEDS ASSESSMENT</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://www.healthleadersmedia.com/strategy/keys-managing-transitions-care</t>
+          <t>https://6e4e5253c366be07fb27-05a8d4e28b318db45e55745aeda40acc.ssl.cf5.rackcdn.com/2020%20PRC%20CHNA%20Report%20-%20Baldwin%20County,%20GA.pdf</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3689,12 +3720,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Sarasota Memorial Moves Forward with Plans to Build Hospital in ...</t>
+          <t>Meet Our Executive Team | Atrium Health Navicent, Macon, Georgia</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.smh.com/northportupdates/sarasota-memorial-moves-forward-with-plans-to-build-hospital-in-north-port</t>
+          <t>https://navicenthealth.org/about-us/meet-our-executive-team</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3709,52 +3740,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BAPTIST MEDICAL CENTER JACKSONVILLE</t>
+          <t>PERRY HOSPITAL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Baptist Health leaders named ones to know | Jacksonville, FL.</t>
+          <t>Leadership | OhioHealth</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.baptistjax.com/about-us/newsroom/news-releases/four-baptist-health-leaders-recognized-as-executives-to-know-by-becker-s-hospital-review</t>
+          <t>https://www.ohiohealth.com/about-us/leadership</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Leadership | Wolfson Children's Hospital | Jacksonville, Florida</t>
+          <t>Genesis Leadership | Genesis Healthcare System</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://www.wolfsonchildrens.com/about/leadership</t>
+          <t>https://www.genesishcs.org/our-impact/about-us/leadership</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Megan Denk, Executive Director</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Baptist Health Administration | Baptist Health | Jacksonville, FL</t>
+          <t>Leadership | College of Public Health</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.baptistjax.com/about-us/administration</t>
+          <t>https://publichealth.gmu.edu/about/leadership</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Dr. Melissa J. Perry, Dean, College of Public Health</t>
         </is>
       </c>
     </row>
@@ -3764,47 +3795,48 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FLAGLER HOSPITAL</t>
+          <t>NORTHSIDE HOSPITAL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>St. Johns County Health Needs Assessment | UF Health St. Johns</t>
+          <t>About | Northside Hospital</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://stjohns.ufhealth.org/community-health-improvement/community-benefit-planning/st-johns-county-health-needs-assessment/</t>
+          <t>https://www.northside.com/about</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Please provide the full HTML content of the webpage.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Full-Time MBA Healthcare Concentration | UNC Kenan-Flagler ...</t>
+          <t>Northside Hospital: Home</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://www.kenan-flagler.unc.edu/programs/mba/full-time-mba/academics/concentrations-electives/healthcare/</t>
+          <t>http://www.northside.com/</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ Sorry you have been blocked You are unable to access jina.ai This website is using a security service to protect itself from online attacks The action you just performed triggered the security solution There are several actions that could trigger this block including submitting a certain word or phrase a SQL command or malformed data You can email the site owner to let them know you were blocked Please include what you were doing when this page came up and the Cloudflare Ray ID found at the bottom of this page Cloudflare Ray ID 8aa9ef00d887390c Your IP Click to reveal 209.198.254.117 Performance &amp; security by Cloudflare.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Leadership | Florida Department of Health</t>
+          <t>COMMUNITY BENEFIT REPORT</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/about/ssg/leadership/index.html</t>
+          <t>https://www.northside.com/docs/default-source/default-document-library/community_benefit_report_2022.pdf</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3819,32 +3851,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ROCKLEDGE REGIONAL MEDICAL CENTER</t>
+          <t>COLISEUM MEDICAL CENTERS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Steward Health Care Adds Joe Deschryver As South Regional ...</t>
+          <t>School of Population Health - University of Mississippi Medical Center</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.rockledgeregional.org/domain-specific/720191/newsroom/2021-06-21/steward-health-care-adds-joe-deschryver-south-regional-president</t>
+          <t>https://www.umc.edu/soph</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>John D. Bower, MD, Learn more.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sharon N. Harrell MBA-HM, BSN, RN, CPHIMS - Rockledge ...</t>
+          <t>Piedmont Macon Medical Center | Piedmont Healthcare</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sharonnharrell</t>
+          <t>https://www.piedmont.org/locations/piedmont-macon-medical/about</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3854,12 +3886,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Centura Health To Acquire Utah Care Sites From Steward Health ...</t>
+          <t>Leadership | HCA Florida Memorial Hospital</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.rockledgeregional.org/newsroom/2023-02-15/centura-health-acquire-utah-care-sites-steward-health-care</t>
+          <t>https://www.hcafloridahealthcare.com/locations/memorial-hospital/about-us/leadership</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3874,107 +3906,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BAPTIST HOSPITAL</t>
+          <t>SOUTHERN REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Leadership | Atrium Health Wake Forest Baptist</t>
+          <t>Community Health Needs Assessment</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.wakehealth.edu/about-us/leadership</t>
+          <t>https://southernregional.org/wp-content/uploads/2022/12/2022_2024-CHNA_WEB.pdf</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jennifer Houlihan, MSP, MA Vice President, Value-Based Care and Population Health, Richard Lord, MD, MA Vice President, Primary Care and Population Health Chair, Family and Community Medicine</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>58 population health executives to know | 2022</t>
+          <t>Leadership | Ballad Health</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://www.beckershospitalreview.com/lists/58-population-health-executives-to-know-2022.html</t>
+          <t>https://www.balladhealth.org/about/leadership</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Parag Agnihotri, MD. Chief Medical Officer of Population Health Services at UCSD Health (San Diego)
-Daphne Bascom, MD, PhD. Vice President of Population Health at Saint Luke's Health System (Kansas City, Mo.)
-Scott Berkowitz, MD. Chief Population Health Officer and Vice President of Population Health at Johns Hopkins Medicine (Baltimore)
-Marilu Bintz, MD. Senior Vice President of Health Population and Strategy at Gunderson Health System (La Crosse, Wis.)
-Tangerine Brigham. Chief Administrative Officer, Population Health, at Alameda (Calif.) Health System
-Marta Brito Perez. Senior Vice President of Population Health and Post Acute Care Services at Adventist HealthCare (Gaithersburg, Md.)
-Mallory Callahan. Director of Population Health Management and Innovation for Nebraska Health Network (Omaha)
-Chuck Callahan, DO. Vice President of Population Health for the University of Maryland Medical Center (Baltimore)
-Steven Carson, BSN, RN. Senior Vice President, Population Health, Temple University Health System (Philadelphia)
-Sang-ick Chang, MD. Division Chief of Primary Care and Population Health of Stanford (Calif.) Medicine
-Nichola Davis, MD. Vice President, Chief Population Health Officer  for NYC Health+Hospitals
-Desiree de la Torre. Director of Community Affairs and Population Health Improvement of Children's National (Washington, D.C.)
-Dan Edelman, DO. Chief Medical Information Officer, Florida Region, and Chief Population Health Officer of Cleveland Clinic (Weston, Fla.)
-Kristine Fay. Chief Officer of Population Health and Physician Services at Lee Health (Fort Myers, Fla.)
-Rob Fields, MD. Executive Vice President and Chief Population Health Officer of Mount Sinai Health System (New York)
-Don Franke. CEO of Amita Health Care Networks and Senior Vice President of Population Health at Amita Health (Arlington Heights, Ill.)
-Kristene Grayem, MSN. Chief Population Health Officer and Executive Director of Akron (Ohio) Children's Health Collaborative
-Reshma Gupta, MD. Chief of Population Health and Accountable Care at the University of California, Davis
-Patrick Hammond, MHA. Chief Market Services Officer and Chief Innovations and Population Health Officer, Emory Healthcare; CEO, Emory Healthcare Network (Atlanta)
-Terri Hanlon-Bremer, MSN, RN. Senior Vice President of Employer Solutions and Population Health at TriHealth (Cincinnati)
-Carrie Harris-Muller. Senior Vice President and Chief Population Health Officer at OhioHealth (Columbus)
-Susan Hawkins. Senior Vice President of Population Health at Henry Ford Health System (Detroit)
-Ethan Helm, MD. Vice Chancellor of Population Health for Rutgers Biomedical and Health Sciences and Deputy Chief Population Health Officer at RWJBarnabas Health (West Orange, N.J.)
-Jennifer Houlihan. Vice President of Value-Based Care and Population Health at Atrium Health Wake Forest Baptist (Winston-Salem, N.C.)
-Jonathan Jaffery, MD. Chief Population Health Officer at UW Health (Madison, Wis.)
-Bill Johnjulio, MD. Chief Population Health Officer of Allegheny Health Network (Pittsburgh)
-Lindsay Jubelt, MD. Chief Population Health Officer of Mass General Brigham (Boston)
-Anthony Keck. Executive Vice President for System Innovation and Chief Population Health Officer at Ballad Health (Johnson City, Tenn.)
-Meaghan Kim, BSN, RN. Director of Population Health at Temple University Health System (Philadelphia)
-Rhonda Medows, MD. President of Population Health Management at Providence (Renton, Wash.)
-Adam Myers, MD. Chief of Population Health at Cleveland Clinic and Chair of Cleveland Clinic Community Care
-Tina Mycroft. CFO of EvergreenHealth Kirkland (Wash.)
-David Nash, MD. Founding Dean Emeritus at Jefferson College of Population Health (Philadelphia)
-Carrie Nelson, MD. Senior Vice President and Chief Medical Officer, Population Health and Health Outcomes at Advocate Aurora Health (Milwaukee, Wis., and Downers Grove, Ill.)
-Susan Neves. CFO of Hill Country Memorial Hospital (Fredericksburg, Texas)
-Judi Nightingale, DrPH, RN. Director of Population Health at Riverside University Health System (Moreno Valley, Calif.)
-Derek Novak. President of the Population Health Services Organization at MercyOne (Des Moines, Iowa)
-Kara Odom Walker, MD. Chief Population Health Officer at Nemours Children's Health (Melbourne, Fla.)
-Dawn O'Neill. Vice President of Population Health at St. Agnes Hospital (Baltimore)
-Philip Oravetz, MD. Chief Population Health Officer at Ochsner Health (New Orleans)
-Ami Parekh, MD. Chief Medical Officer for Population Health and Clinical Integration at University of California San Francisco Health
-James Parr. Executive Vice President of Operations and CFO of Salem (Ore.) Hospital
-Samatha Patrick. CFO of Clark Regional Medical Center (Winchester, Ky.) and Bourbon Community Hospital (Paris, Ky.)
-Michael Perry. Vice President of Finance and CFO of Mid Coast-Parkview Health (Brunswick, Maine)
-Adam Popp. CFO of Prairie Lakes Healthcare System (Watertown, S.D.)
-Trever Porter. Finance Director of Intermountain McKay-Dee Hospital (Ogden, Utah)
-Tony Reed. Vice President for Population Health Operations at ChristianaCare (Newark, Del.)
-Jamie Reedy, MD. Chief of Population Health at Summit Health (Berkeley Heights, N.J.)
-Devdutta Sangvai, MD. Vice President for Population Health Management at Duke Health (Durham, N.C.)
-Navkiran Shokar, MD. Chair of the Department of Population Health at the University of Texas at Austin Dell Medical School (Austin, Texas)
-Mark Sparta. Executive Vice President of Population Health for Hackensack Meridian Health Network and President of Hackensack University Medical Center (Edison, N.J.)
-Douglas Spotts, MD. Chief Health Officer of Meritus Health (Hagerstown, Md.)
-Nicholas Stine, MD. System Senior Vice President of Enterprise Population Health atCommonSpirit Health (Chicago)
-Mark Terpylak, DO. Senior Vice President of Population Health at Summa Health (Akron, Ohio)
-Jim Tidwell, MD. Vice President of Population Health of Owensboro Health (Owensboro, Ky.)
-Debbie Welle-Powell. Chief Population Health Officer at Essentia Health (Duluth, Minn.)</t>
+          <t>Anthony Keck, System Innovation and Chief Population Health Officer, Dr. Shari Rajoo, Chief Medical Officer for Population Health Services</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Baptist Health Care System Leadership Team | Baptist Health</t>
+          <t>Region IV Public Health Training Center: R4PHTC Home</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://www.baptisthealthsystem.com/about/leadership-team</t>
+          <t>https://r4phtc.org/</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Kentucky Population Health Institute, Community-Based Training Partner</t>
         </is>
       </c>
     </row>
@@ -3984,17 +3961,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH LAKE WALES</t>
+          <t>REDMOND REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Public Health – Seattle &amp; King County - King County, Washington</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.kingcounty.gov/en/dept/dph</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4004,12 +3981,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Imee Unto-Dahl, DNP, RN, CENP - Carondelet Health Network</t>
+          <t>Redmond Regional Medical Center Joins AdventHealth</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/imee-unto-dahl-dnp-rn-cenp-39911121a</t>
+          <t>https://www.adventhealth.com/hospital/adventhealth-redmond/news/redmond-regional-medical-center-joins-adventhealth</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4019,12 +3996,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>AdventHealth Lake Wales* 2022-2024 COMMUNITY HEALTH PLAN</t>
+          <t>Public Health Centers - King County, Washington</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/sites/default/files/assets/2022-2024-community-health-plan.pdf</t>
+          <t>https://www.kingcounty.gov/en/dept/dph/health-safety/health-centers-programs-services/public-health-centers</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4039,47 +4016,47 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SHANDS LAKE SHORE REGIONAL MEDICAL CENTER</t>
+          <t>DOCTORS HOSPITAL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>College Leadership » College of Public Health &amp; Health Professions ...</t>
+          <t>Leadership | OhioHealth</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://phhp.ufl.edu/about-phhp/college-leadership/</t>
+          <t>https://www.ohiohealth.com/about-us/leadership</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Premier | Premier Inc. Recognizes Healthcare Organizations for…</t>
+          <t>Precision Medicine Tech Helps Doctors Zero In On Diseases And ...</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://premierinc.com/newsroom/press-releases/premier-inc-recognizes-healthcare-organizations-improving-quality-costs</t>
+          <t>https://www.healthleadersmedia.com/innovation/precision-medicine-tech-helps-doctors-zero-diseases-and-treatments</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Jeremy Woods, MD, Director of Precision Medicine</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Rural hospitals in crisis mode</t>
+          <t>The Core Competencies Needed for Health Care Professionals ...</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.beckershospitalreview.com/finance/rural-hospitals-in-crisis-mode?utm_campaign=bhr&amp;utm_source=website&amp;utm_content=related</t>
+          <t>https://www.ncbi.nlm.nih.gov/books/NBK221519/</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4094,17 +4071,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CLEVELAND CLINIC INDIAN RIVER HOSPITAL</t>
+          <t>WELLSTAR DOUGLAS HOSPITAL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Executive Leadership | Cleveland Clinic</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://my.clevelandclinic.org/about/overview/leadership/executive</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4114,12 +4091,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cleveland Clinic Invests in Initiatives that Impact Health of ...</t>
+          <t>Family Medicine | Kennestone Hospital – Wellstar Graduate Medical ...</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://newsroom.clevelandclinic.org/2023/12/19/cleveland-clinic-invests-in-initiatives-that-impact-health-of-communities-it-serves</t>
+          <t>https://gme.wellstar.org/kennestone/family-medicine/</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4129,17 +4106,18 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Give | Cleveland Clinic Florida</t>
+          <t>2016 Community Health Needs Assessment IMPLEMENTATION</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://my.clevelandclinic.org/florida/giving</t>
+          <t>https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ AssertionFailureError Failed to goto https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a Error net::ERR_ABORTED at https://www.wellstar.org/-/media/project/wellstar/org/documents/chna/chna_implementation_strategy_2016.pdf?rev=04b054fe77a242a08fc13e705828080a.</t>
         </is>
       </c>
     </row>
@@ -4149,54 +4127,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DOCTORS MEMORIAL HOSPITAL INC</t>
+          <t>FANNIN REGIONAL HOSPITAL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Leadership | OhioHealth</t>
+          <t>Harris County Public Health</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.ohiohealth.com/about-us/leadership</t>
+          <t>https://publichealth.harriscountytx.gov/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Froedtert ThedaCare Health, Inc., Executive Leadership</t>
+          <t>Quorum Health Completes Transaction with Java Medical Group ...</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://www.froedtert.com/about/executive-leadership</t>
+          <t>https://juniperadvisory.com/quorum-health-completes-transaction-with-java-medical-group/</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Imran Andrabi MD FAAFM, President and CEO
-Ian Schwartz MD, Chief Clinical Officer 
-none found</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Cone Health Leadership | Cone Health</t>
+          <t>Public Health &gt; About &gt; Leadership</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.conehealth.com/about-us/leadership/</t>
+          <t>https://publichealth.harriscountytx.gov/About/Leadership</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Danielle Phelps Swartz, Vice President Population Health</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -4206,17 +4182,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LEHIGH REGIONAL MEDICAL CENTER</t>
+          <t>FLINT RIVER COMMUNITY HOSPITAL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Healthcare/Prime</t>
+          <t>The Flint Water Crisis: A Coordinated Public Health Emergency ...</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://lehighregional.com/careers/why-prime-healthcare/</t>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6309965/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4226,27 +4202,28 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lehigh University College of Health</t>
+          <t>The Water Crisis in Flint and How a Community-Based Medical ...</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://health.lehigh.edu/</t>
+          <t>https://www.aamc.org/news/water-crisis-flint-and-how-community-based-medical-school-came-rescue</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Mona Hanna-Attisha, MD, MPH, FAAP, assistant professor of pediatrics at Michigan State University (MSU) College of Human Medicine and director of pediatric residency at Hurley Children’s Hospital in Flint.
+Richard Sadler, PhD, assistant professor of family medicine at MSU and one of the co-authors of the American Journal of Public Health study.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Careers at Lehigh Regional Medical Center</t>
+          <t>Public Health 3.0: A Call to Action for Public Health to Meet the ...</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://lehighregional.com/careers/</t>
+          <t>https://www.cdc.gov/pcd/issues/2017/17_0017.htm</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4261,17 +4238,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH SEBRING</t>
+          <t>PIEDMONT HENRY HOSPITAL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4281,12 +4258,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AdventHealth Sebring celebrates new class of internal and family ...</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://www.midfloridanewspapers.com/highlands_news-sun/highlands_health/adventhealth-sebring-celebrates-new-class-of-internal-and-family-medicine-residents/article_c0ca38ea-eb11-11ee-a310-0b48f61ea500.html</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4296,12 +4273,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>AdventHealth | A Leader in Whole-Person Health Care</t>
+          <t>37323BR: Physician - Emergency Medicine, Stockbridge, GA ...</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/</t>
+          <t>https://www.teamhealth.com/jobs/37323br-physician-emergency-medicine-stockbridge-ga/</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4316,17 +4293,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>OSCEOLA REGIONAL MEDICAL CENTER</t>
+          <t>EASTSIDE MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hospital Leadership</t>
+          <t>Community Health Needs Assessment | Piedmont Eastside Medical ...</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://www.piedmont.org/media/file/2022-11-PEH-Community-Health-Needs-Assessment.pdf</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4336,12 +4313,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OSCEOLA COUNTY COMMUNITY HEALTH IMPROVEMENT PLAN ...</t>
+          <t>Executive Leadership | Mount Sinai - New York</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/provider-and-partner-resources/community-partnerships/floridamapp/state-and-community-reports/osceola-county/_documents/osceola-chip.pdf</t>
+          <t>https://www.mountsinai.org/about/executive-leadership</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4351,12 +4328,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Florida Department of Health in Osceola County</t>
+          <t>Piedmont Eastside Medical Center | Snellville, Georgia</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://osceola.floridahealth.gov/</t>
+          <t>https://www.piedmont.org/locations/piedmont-eastside-medical/about</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4371,17 +4348,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>UF HEALTH SHANDS HOSPITAL</t>
+          <t>DONALSONVILLE HOSPITAL INC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>UF Health Leadership - About UF Health - UF Health</t>
+          <t>Hospital Leadership | Donalsonville Hospital</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://ufhealth.org/about-uf-health/uf-health-leadership</t>
+          <t>https://donalsonvillehospital.org/about/hospital-leadership/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4391,12 +4368,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Master of Health Administration (MHA) » Health Services Research ...</t>
+          <t>Heather Smith - Director of Nursing - Donalsonville Hospital, Inc ...</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://hsrmp.phhp.ufl.edu/academic-programs/master-of-health-administration-2/</t>
+          <t>https://www.linkedin.com/in/heather-smith-abb8852b6</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4406,12 +4383,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>UF Health Shands IS Report 2022</t>
+          <t>DONALSONVILLE HOSPITAL, INC.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://ufhealth.org/assets/media/community-health/2023-2025-CHIP-uf-health-shands.pdf</t>
+          <t>https://donalsonvillehospital.org/wp-content/uploads/2024/01/dhichna2022.pdf</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4426,17 +4403,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BAPTIST MEDICAL CENTER - BEACHES</t>
+          <t>WELLSTAR NORTH FULTON HOSPITAL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Baptist Health Administration | Baptist Health | Jacksonville, FL</t>
+          <t>Wellstar North Fulton Medical Center</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.baptistjax.com/about-us/administration</t>
+          <t>https://www.wellstar.org/locations/hospital/north-fulton-medical-center</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4446,30 +4423,27 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>149 Black healthcare leaders to know | 2023</t>
+          <t>Search our Job Opportunities at Wellstar Health System, Inc.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://www.beckershospitalreview.com/lists/149-black-healthcare-leaders-to-know-2023.html</t>
+          <t>https://careers.wellstar.org/leadership-jobs</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nichola Davis, MD. Vice President and Chief Population Health Officer of NYC Health + Hospitals (New York City). 
-Paul Alexander, MD. Executive Vice President and Chief Health Equity and Transformation Officer at RWJBarnabas Health (Orange, N.J.). 
-Evelyn Balogun, MD. Chief Medical Officer of Inspira Medical Group (Mullica Hill, N.J.). 
-William Carroll, PharmD. Chief Pharmacy Officer, Vice President of Network Pharmacy Services at Hackensack Meridian Health (Edison, N.J.).</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Baptist Health leaders named ones to know | Baptist Health ...</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.baptistjax.com/about-us/newsroom/news-releases/four-baptist-health-leaders-recognized-as-executives-to-know-by-becker-s-hospital-review</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4484,17 +4458,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH PALM COAST</t>
+          <t>PIEDMONT COLUMBUS REGIONAL NORTHSIDE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Community Health Needs Assessment | Piedmont Columbus Regional</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.piedmont.org/media/file/2022-11-PCR-Community-Health-Needs-Assessment.pdf</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4504,12 +4478,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Community Health Improvement Plan</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://volusia.floridahealth.gov/programs-and-services/community-health-planning-and-statistics/_documents/CHIP23-25_V4.pdf</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4519,12 +4493,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>AdventHealth Palm Coast Leadership</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/hospital/adventhealth-palm-coast/adventhealth-palm-coast-leadership</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4539,17 +4513,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BARTOW REGIONAL MEDICAL CENTER</t>
+          <t>COLISEUM NORTHSIDE HOSPITAL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cortland Hudson, MSHA - Director of Operations-Bartow Regional ...</t>
+          <t>Job Search Results - Northside Hospital Careers</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/cortlandhudson</t>
+          <t>https://jobs.northside.com/job-search-results/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4559,12 +4533,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4574,12 +4548,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Froedtert ThedaCare Health, Inc., Board of Directors</t>
+          <t>NYC Health + Hospitals/North Central Bronx</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.froedtert.com/about/board-of-directors</t>
+          <t>https://www.nychealthandhospitals.org/locations/north-central-bronx/</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4594,17 +4568,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NORTH OKALOOSA MEDICAL CENTER</t>
+          <t>TURNING POINT HOSPITAL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>About Us | North Okaloosa Medical Center | Crestview, FL</t>
+          <t>Michael Dowling on a turning point for healthcare CEOs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.northokaloosa.com/hospital-about-us</t>
+          <t>https://www.beckershospitalreview.com/hospital-management-administration/michael-dowling-on-a-turning-point-for-healthcare-ceos.html</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4614,12 +4588,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>North Okaloosa Medical Center | LinkedIn</t>
+          <t>Performance Management: Turning Point</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/northokaloosamedicalcenter</t>
+          <t>https://www.phf.org/programs/turningpoint/pages/turning_point_performance_management_refresh.aspx</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4629,12 +4603,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>OKALOOSA COUNTY - Community Health Assessment</t>
+          <t>Two Decades of Innovation in Public Health Leadership: SPH's ...</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://okaloosa.floridahealth.gov/programs-and-services/community-health-planning-and-statistics/_documents/2022OkaloosaCountyCommunityHealthAssessment.pdf</t>
+          <t>https://www.bu.edu/sph/news/articles/2024/two-decades-of-innovation-in-public-health-leadership-sphs-drph-program-turns-20/</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4649,17 +4623,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SANTA ROSA MEDICAL CENTER</t>
+          <t>PIEDMONT FAYETTE HOSPITAL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2022 Community Health Needs Assessment</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://about.kaiserpermanente.org/content/dam/kp/mykp/documents/reports/community-health/santa-rosa-chna-2022.pdf</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4669,27 +4643,27 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Advocate Health names Executive Leadership Team Milwaukee ...</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://www.aurorahealthcare.org/news/advocate-health-names-executive-leadership-team</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Don Calcagno, MBA SVP, Chief Population Health Officer, Terry G. Williams, DrPH candidate, MBA SVP, Chief Population Health Officer</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Santa Rosa Medical Center names Justin Serrano Chief Executive ...</t>
+          <t>Community Health Needs Assessment | Piedmont Fayette Hospital</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.srmcfl.com/news-room/santa-rosa-medical-center-names-justin-serrano-chi-18913</t>
+          <t>https://www.piedmont.org/media/file/2022-11-PFH-Community-Health-Needs-Assessment.pdf</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4704,50 +4678,47 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HOMESTEAD HOSPITAL</t>
+          <t>PIEDMONT MOUNTAINSIDE HOSPITAL INC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Leadership | Department of Public Health | City of Philadelphia</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.phila.gov/departments/department-of-public-health/about-us/leadership/</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Dr. Frank Franklin, Interim Health Commissioner
-Ryan Taylor, Chief Operating Officer
-Palak Raval-Nelson, Deputy Health Commissioner
-Dr. Megan Todd, Chief Epidemiologist</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Our Leaders | Essentia Health</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://www.essentiahealth.org/about/our-leaders</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cathy Cantor MD, Chief Population Health Officer</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Kenneth Spell | Executive Leadership | Baptist Health</t>
+          <t>Piedmont Mountainside | Jasper, Georgia</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/newsroom/executive-leadership/kenneth-spell</t>
+          <t>https://www.piedmont.org/locations/piedmont-mountainside/about</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4762,17 +4733,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PALMS OF PASADENA HOSPITAL</t>
+          <t>EMORY HILLANDALE HOSPITAL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Johns Hopkins Health System Fiscal Year 2019 Community Benefits ...</t>
+          <t>Emory Hillandale Hospital unveils $11 million in improvements ...</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.hopkinsmedicine.org/-/media/migration/all-childrens-hospital/documents/community/jhach-fy-2019-hospital-community-benefit-narrative_final.pdf</t>
+          <t>https://news.emory.edu/stories/2023/12/hs_ehh_ribbon_cutting_hospital_improvements_21-12-2023/story.html</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4782,12 +4753,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Leadership | Clear Lake</t>
+          <t>Executive Leadership and Board of Directors Leadership at Emory ...</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://www.hcahoustonhealthcare.com/locations/clear-lake/about-us/leadership</t>
+          <t>https://www.emoryhealthcare.org/about/executive-staff</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4797,12 +4768,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>About Us | HCA Florida Pasadena Hospital</t>
+          <t>Jen Schuck named CEO of Emory Decatur Hospital, Emory ...</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.hcafloridahealthcare.com/locations/pasadena-hospital/about-us</t>
+          <t>https://news.emory.edu/stories/2023/05/hs_jen_schuck_named_ceo_edh_ehh_eltac_17-05-2023/story.html</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4817,17 +4788,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MORTON PLANT HOSPITAL</t>
+          <t>PIEDMONT NEWNAN HOSPITAL, INC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BayCare Leadership</t>
+          <t>Piedmont Newnan Hospital Leadership Staff | Piedmont Healthcare</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://baycare.org/about-us/baycare-leadership</t>
+          <t>https://www.piedmont.org/locations/piedmont-newnan/pnh-board-of-directors</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4837,12 +4808,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>USF Health - Morton Plant Mease Family Medicine Residency ...</t>
+          <t>Careers at Piedmont Healthcare: Home</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://health.usf.edu/medicine/family/residency.html</t>
+          <t>https://piedmontcareers.org/</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4852,12 +4823,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Hospital Leadership at Morton Plant Hospital</t>
+          <t>Board of Directors &amp; Senior Executive Leadership | Piedmont ...</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://baycare.org/locations/hospitals/morton-plant-hospital/about-us/hospital-leadership</t>
+          <t>https://www.piedmont.org/about-piedmont-healthcare/board-of-directors/piedmont-healthcare</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4872,17 +4843,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TAMPA GENERAL HOSPITAL</t>
+          <t>EMORY JOHNS CREEK HOSPITAL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Leadership Team | Tampa General Hospital</t>
+          <t>Rollins School of Public Health</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tgh.org/about-tgh/tampa-general-hospital-leadership</t>
+          <t>https://sph.emory.edu/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4892,32 +4863,32 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tampa General Hospital launches new VC fund to drive tech ...</t>
+          <t>Heather Dexter and Matt Wain appointed to new Emory Healthcare ...</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://www.healthcareitnews.com/news/tampa-general-hospital-launches-new-vc-fund-drive-tech-advancements</t>
+          <t>https://news.emory.edu/stories/2023/10/hs_dexter_wain_ehc_regionalized_hospital_structure_05-10-2023/story.html</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rachel Feinman, Vice President for Innovation</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Tampa General Hospital Executive Biographies</t>
+          <t>Emory Johns Creek Hospital | Emory School of Medicine</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.tgh.org/about-tgh/tampa-general-hospital-leadership/tampa-general-hospital-executive-biographies</t>
+          <t>https://med.emory.edu/departments/emergency-medicine/patient-care/emory-johns-creek-hospital/index.html</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Julius Rodillas, Clinical Operations Manager, Emory Johns Creek Hospital Emergency Department</t>
         </is>
       </c>
     </row>
@@ -4927,32 +4898,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LAKESIDE MEDICAL CENTER</t>
+          <t>SOUTHEASTERN REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Leadership - hcdpbc.org</t>
+          <t>Leadership | OhioHealth</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.hcdpbc.org/for-patients/hospital/about-us/leadership</t>
+          <t>https://www.ohiohealth.com/about-us/leadership</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Carrie Harris-Muller, Senior Vice President and Chief Population Health Officer</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>"Economic Development is Population Health": A New Vision for ...</t>
+          <t>College of Osteopathic Medicine | Nova Southeastern University</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://www.ruralhealthinfo.org/rural-monitor/economic-development</t>
+          <t>https://osteopathic.nova.edu/</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4962,17 +4933,17 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Janet D. Moreland Named Lakeside Medical Center's New Leader ...</t>
+          <t>Region IV Public Health Training Center: R4PHTC Home</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.hcdpbc.org/about-us/newsroom/2019/july/janet-d-moreland-named-lakeside-medical-centers-new-leader</t>
+          <t>https://r4phtc.org/</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Kentucky Population Health Institute, Community-Based Training Partner</t>
         </is>
       </c>
     </row>
@@ -4982,17 +4953,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AVENTURA HOSPITAL AND MEDICAL CENTER</t>
+          <t>SGMC BERRIEN CAMPUS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Leadership | HCA Florida Aventura Hospital</t>
+          <t>SGMC Promotes Members of Leadership Team - SGMC Health</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.hcafloridahealthcare.com/locations/aventura-hospital/about-us/leadership</t>
+          <t>https://www.sgmc.org/sgmc-promotes-members-of-leadership-team/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5002,28 +4973,27 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Emergency Medicine Residency Faculty | HCA Florida Aventura ...</t>
+          <t>Announcing SGMC Health</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://hcahealthcaregme.com/locations/hca-florida-aventura-hospital/emergency-medicine-residency/faculty.dot</t>
+          <t>https://health.sgmc.org/announcement</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Unusual behavior notice: Webpage: 
- HTTP Status 406 Not Acceptable The target resource does not have a current representation that would be acceptable to the user agent according to the proactive negotiation header fields received in the request and the server is unwilling to supply a default representation Apache Tomcat 8.5.32.</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>A Diversity and Cultural Proficiency Assessment Tool for Leaders</t>
+          <t>Leadership Announcements Archives - Page 2 of 5 - SGMC Health</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.aha.org/system/files/2018-02/DiversityTool.pdf</t>
+          <t>https://www.sgmc.org/category/leadership-announcements/page/2/</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5038,32 +5008,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SOUTH FLORIDA BAPTIST HOSPITAL</t>
+          <t>CHI MEMORIAL HOSPITAL- GEORGIA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Combined PGY1/PGY2 Corporate Pharmacy Administration and ...</t>
+          <t>CHI Memorial: Healing Our Community</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/academics/residencies-and-fellowships/pharmacy/combined-pgy1-and-pgy2-pharmacy-residency-programs/combined-pgy1-and-pgy2-corporate-pharmacy-administration-and-leadership-residency-program</t>
+          <t>https://www.memorial.org/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Halena Leah Marcelin, Pharm.D., MS, 340B ACE, Program Director, Angelica Berni, Pharm.D., MS, BCPS, Program Coordinator</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Public Health Leadership Paramount to Emerging ... - FAU</t>
+          <t>MSM Eyes Potential Chattanooga Campus | Morehouse School of ...</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://www.fau.edu/newsdesk/articles/covid19-public-health.php</t>
+          <t>https://www.msm.edu/RSSFeedArticles/2024/February/More-in-Common-Alliance.php</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5073,12 +5043,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Executive Leadership | Baptist Health</t>
+          <t>2019 CHNA Implementation Strategy CHI Memorial Hospital ...</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/newsroom/executive-leadership</t>
+          <t>https://www.memorial.org/content/dam/memorialorg/pdfs/CHI_MEMORIAL_CHNA_IMPLEMENTATION_PLAN_2020_2023_GA.pdf</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5093,32 +5063,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ED FRASER MEMORIAL HOSPITAL</t>
+          <t>NORTHEAST GEORGIA MEDICAL CENTER LUMPKIN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Executive Team - Ed Fraser Memorial Hospital</t>
+          <t>System Administration - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://edfraserhospital.com/baker-county-medical-services/executive-team/</t>
+          <t>https://www.nghs.com/administration</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Antonio Rios MD Chief of Population Health</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Community Health Assessment for Baker County | Florida ...</t>
+          <t>NGMC Lumpkin breaks ground on future hospital near Dahlonega ...</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://baker.floridahealth.gov/events/2023/06/CommunityHealthAssessment.html</t>
+          <t>https://nowhabersham.com/ngmc-lumpkin-breaks-ground-on-future-hospital-near-dahlonega/</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5128,17 +5098,17 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Public Health 3.0: A Call to Action for Public Health to Meet the ...</t>
+          <t>About - Northeast Georgia Health System</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.cdc.gov/pcd/issues/2017/17_0017.htm</t>
+          <t>https://www.nghs.com/about</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>**Dr. John Delzell, Vice President of Population Health**</t>
         </is>
       </c>
     </row>
@@ -5148,17 +5118,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TALLAHASSEE MEMORIAL HOSPITAL</t>
+          <t>SOUTHWEST GEORGIA REGIONAL MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Leadership &amp; Governance | Tallahassee Memorial HealthCare ...</t>
+          <t>About Phoebe Putney Health System</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tmh.org/about-tmh/leadership-and-governance</t>
+          <t>https://www.phoebehealth.com/about-us</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5168,27 +5138,30 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lauren Faison - SLA - Tallahassee Memorial HealthCare</t>
+          <t>UGA Archway Partnership joins forces with College of Public Health ...</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lauren-faison-9128a577</t>
+          <t>https://outreach.uga.edu/uga-report-helps-rural-healthcare-providers-prepare-for-covid-19-pandemic/</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Grace Bagwell Adams, Associate Professor, College of Public Health
+Sarah Adams, Archway Partnership Professional
+John Drake, Professor, Odum School of Ecology
+Andreas Handel, Professor, College of Public Health</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>About Us: Non-Profit Healthcare System | TMH</t>
+          <t>Morehouse School of Medicine - MSM - Atlanta</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.tmh.org/about-tmh</t>
+          <t>https://www.msm.edu/</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5203,17 +5176,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH HEART OF FLORIDA</t>
+          <t>BLECKLEY MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AdventHealth Heart of Florida | Formerly Heart of Florida</t>
+          <t>Hospitalists - Bleckley Memorial Hospital</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/hospital/adventhealth-heart-florida</t>
+          <t>https://bleckleymemorial.com/hospitalist.html</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5223,12 +5196,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Heart of Florida Health Center: Home</t>
+          <t>Georgia Hospital Association &gt; Advocacy &gt; Rural Health Care</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://www.myhfhc.org/</t>
+          <t>https://www.gha.org/Advocacy/Rural-Health-Care</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5238,12 +5211,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>About Us - Bleckley Memorial Hospital</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://bleckleymemorial.com/about.html</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5258,17 +5231,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BAPTIST MEDICAL CENTER - NASSAU</t>
+          <t>JASPER MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Baptist Health Administration | Baptist Health | Jacksonville, FL</t>
+          <t>110 rural hospital and health system CEOs to know | 2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.baptistjax.com/about-us/administration</t>
+          <t>https://www.beckershospitalreview.com/lists/110-rural-hospital-and-health-system-ceos-to-know-2024.html</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5278,32 +5251,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mayda Antun, M.D., Named Baptist Health Quality Network Medical ...</t>
+          <t>Leadership – LifeSpring Health Systems</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/newsroom/press-release/maydaantunmdnamedbaptisthealthqualitynetworkmedicaldirectorofnetworkperformanceandmedicalmanagement</t>
+          <t>https://www.lifespringhealthsystems.org/about-us/leadership/</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mayda Antun, M.D., Medical Director of Network Performance and Medical Management</t>
+          <t>Fairouz Saad, PhD, Director of Population Health</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Baptist Medical Center Nassau | Baptist Health | Fernandina Beach, FL</t>
+          <t>149 Black healthcare leaders to know | 2023</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.baptistjax.com/locations/baptist-medical-center-nassau</t>
+          <t>https://www.beckershospitalreview.com/lists/149-black-healthcare-leaders-to-know-2023.html</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Nichola Davis, MD. Vice President and Chief Population Health Officer of NYC Health + Hospitals (New York City). 
+Paul Alexander, MD. Executive Vice President and Chief Health Equity and Transformation Officer at RWJBarnabas Health (Orange, N.J.). 
+Evelyn Balogun, MD. Chief Medical Officer of Inspira Medical Group (Mullica Hill, N.J.).</t>
         </is>
       </c>
     </row>
@@ -5313,32 +5288,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JACKSON HOSPITAL</t>
+          <t>MORGAN MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Executive Team | Jackson Health System</t>
+          <t>Lewis/Ferguson Internships and Fellowships | Minority Health | CDC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://jacksonhealth.org/administrative/executive-team/</t>
+          <t>https://www.cdc.gov/minorityhealth/internships/index.html</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Barbara Fonte, VP Population Health</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Jackson Health System Community Health Needs Assessment 2015</t>
+          <t>Health Care Conference</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://storage.googleapis.com/jackson-library/reports/2015-chna-report.pdf</t>
+          <t>https://www.jpmorgan.com/about-us/events-conferences/health-care-conference</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5348,12 +5323,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Jackson Memorial Hospital | 24/7 Emergency Services in Miami</t>
+          <t>IU Health Leadership | IU Health</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://jacksonhealth.org/locations/jackson-memorial-hospital/</t>
+          <t>https://iuhealth.org/about-our-system/iu-health-leadership</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5368,32 +5343,33 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LOWER KEYS MEDICAL CENTER</t>
+          <t>MILLER COUNTY HOSPITAL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lower Keys Medical Center | Key West, FL</t>
+          <t>Robin Rau Recognized as a "Community Star" - Miller County Hospital</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.lkmc.com/</t>
+          <t>https://www.millercountyhospital.com/robin-rau-community-star/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Robin Rau, CEO, Hospital Authority of Miller County, 
+Jill Brown, CFO, Hospital Authority of Miller County</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Key Leaders | About IHS</t>
+          <t>Cone Health Leadership | Cone Health</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://www.ihs.gov/aboutihs/keyleaders/</t>
+          <t>https://www.conehealth.com/about-us/leadership/</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5403,12 +5379,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Improvement Area: Triple Aim and Population Health | Institute for ...</t>
+          <t>Jill Brown Awarded CFO of the Year - Hospital Authority of Miller ...</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.ihi.org/improvement-areas/improvement-area-triple-aim-and-population-health</t>
+          <t>https://www.millercountyhospital.com/jill-brown-cfo-of-the-year/</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5423,17 +5399,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MAYO CLINIC</t>
+          <t>EFFINGHAM HEALTH SYSTEM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>About Us - Mayo Clinic</t>
+          <t>Effingham Health System – Effingham Hospital, Springfield GA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.mayoclinic.org/about-mayo-clinic</t>
+          <t>https://www.effinghamhealth.org/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5443,27 +5419,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Community leaders and Mayo Clinic researchers develop playbook ...</t>
+          <t>149 Black healthcare leaders to know | 2023</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://newsnetwork.mayoclinic.org/discussion/community-leaders-and-mayo-clinic-researchers-develop-playbook-for-covid-19-health-equity-future-pandemics/</t>
+          <t>https://www.beckershospitalreview.com/lists/149-black-healthcare-leaders-to-know-2023.html</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Mark Wieland, M.D., Community Internal Medicine Physician, Irene Sia, M.D., Infectious Diseases Specialist</t>
+          <t>Nichola Davis, MD. Vice President and Chief Population Health Officer of NYC Health + Hospitals (New York City). 
+Evelyn Balogun, MD. Chief Medical Officer of Inspira Medical Group (Mullica Hill, N.J.).
+William Carroll, PharmD. Chief Pharmacy Officer, Vice President of Network Pharmacy Services at Hackensack Meridian Health (Edison, N.J.). 
+Dr. Alexander also plays a key role in RWJBarnabas Health's population health activities and the expansion of the system's use of analytics and data tracking to address population health.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Mayo Clinic Leadership - About Us - Mayo Clinic</t>
+          <t>Transforming Healthcare Close to Home – Effingham Health System</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.mayoclinic.org/about-mayo-clinic/governance/leadership</t>
+          <t>https://www.effinghamhealth.org/learn-about-us/about-us/</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5478,17 +5457,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SOUTH MIAMI HOSPITAL</t>
+          <t>CLINCH MEMORIAL HOSPITAL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>University of Miami Health System | South Florida Health Care ...</t>
+          <t>COMMUNITY HEALTH NEEDS ASSESSMENT</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://umiamihealth.org/en/</t>
+          <t>https://clinchmh.org/wp-content/uploads/2019/06/Clinch-CHNA-2019-Apr-30-1.pdf</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5498,27 +5477,28 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Jackson Memorial Hospital | 24/7 Emergency Services in Miami</t>
+          <t>April 1, 2022</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://jacksonhealth.org/locations/jackson-memorial-hospital/</t>
+          <t>https://dch.georgia.gov/document/document/sorh-short-rows-april-2022/download</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ Failed to goto https dch georgia gov document document sorh short rows april 2022 download Error net ERR ABORTED at https dch georgia gov document document sorh short rows april 2022 download.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>William Duquette | Executive Leadership | Baptist Health</t>
+          <t>SGMC Promotes Members of Leadership Team - SGMC Health</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://baptisthealth.net/newsroom/executive-leadership/william-duquette</t>
+          <t>https://www.sgmc.org/sgmc-promotes-members-of-leadership-team/</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5533,53 +5513,52 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LAKE CITY MEDICAL CENTER</t>
+          <t>MEDICAL CENTER OF PEACH COUNTY, NAVICENT HEALTH</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The Emergence of Population Health in US Academic Medicine - PMC</t>
+          <t>The Medical Center of Peach County - Atrium Health Navicent ...</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6481447/</t>
+          <t>https://navicenthealth.org/service-center/medical-center-of-peach-county</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Marc N. Gourevitch, MD, MPH, Lesley H. Curtis, PhD, Maureen S. Durkin, PhD, DrPH, Angela Fagerlin, PhD, Annetine C. Gelijns, PhD, JD, Richard Platt, MD, MSc, Belinda M. Reininger, DrPH, Judith Wylie-Rosett, EdD, RD, Katherine Jones, MA, and William M. Tierney, MD</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UnityPoint Health Leadership</t>
+          <t>Atrium Health Navicent Peach | LinkedIn</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://www.unitypoint.org/about-unitypoint-health/our-organization/leadership</t>
+          <t>https://www.linkedin.com/company/the-medical-center-of-peach-county-navicent-health</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Scott Kizer, President CEO</t>
+          <t>none found</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>University of Utah Celebrates Opening of New Population Health ...</t>
+          <t>Medical Center of Peach County, Navicent Health Chief ...</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://healthcare.utah.edu/press-releases/2023/10/university-of-utah-celebrates-opening-of-new-population-health-center-rose</t>
+          <t>https://navicenthealth.org/community/single_news/medical-center-of-peach-county-navicent-health-chief-administrative-officer-darren-pearce-elected-to</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>- Taylor Randall, President of the University of Utah
-- Gina Hawley, COO University of Utah Health Hospitals and Clinics</t>
+          <t>none found</t>
         </is>
       </c>
     </row>
@@ -5589,17 +5568,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LAKELAND REGIONAL MEDICAL CENTER</t>
+          <t>JENKINS COUNTY MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Leadership - Lakeland Regional Health</t>
+          <t>Newsroom - Jenkins County Medical Center</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.mylrh.org/leadership/</t>
+          <t>https://jenkinsmedicalcenter.com/about-us/newsroom/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5609,12 +5588,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Internal Medicine - Graduate Medical Education | Lakeland ...</t>
+          <t>Public Health Leadership Team | Durham County - NC - Public Health</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://gme.mylrh.org/internal-medicine/</t>
+          <t>https://www.dcopublichealth.org/about-us/leadership-team</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5624,12 +5603,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Thrive 2025</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://careers.mylrh.org/wp-content/uploads/2023/03/THRIVE_2025_print_VER4.pdf</t>
+          <t>https://www.nj.gov/health/about/njdoh/leadership/</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5644,17 +5623,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRAL FLORIDA REGIONAL HOSPITAL</t>
+          <t>OPTIM MEDICAL CENTER - SCREVEN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Orlando Health Leadership Team</t>
+          <t>CMS Hospital Standard Charges | Optim Health System | Georgia</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.orlandohealth.com/about-us/leadership</t>
+          <t>https://optimhealthsystem.com/about-us/cms-hospital-standard-charges/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5664,12 +5643,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UF Health Leadership - About UF Health - UF Health</t>
+          <t>Georgia Hospital Association &gt; Advocacy &gt; Rural Health Care</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://ufhealth.org/about-uf-health/uf-health-leadership</t>
+          <t>https://www.gha.org/Advocacy/Rural-Health-Care</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5679,12 +5658,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Public Health Leadership Paramount to Emerging ... - FAU</t>
+          <t>Notice Of Non-discrimination | Optim Health System | Georgia</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.fau.edu/newsdesk/articles/covid19-public-health.php</t>
+          <t>https://optimhealthsystem.com/about-us/notice-of-non-discrimination/</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5699,17 +5678,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DOCTORS HOSPITAL OF SARASOTA</t>
+          <t>PUTNAM GENERAL HOSPITAL</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Leadership | HCA Florida Sarasota Doctors Hospital</t>
+          <t>Leadership | Department of Public Health &amp; Environment</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.hcafloridahealthcare.com/locations/sarasota-doctors-hospital/about-us/leadership</t>
+          <t>https://cdphe.colorado.gov/about-cdphe/leadership</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5719,28 +5698,27 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sarasota Memorial Administrators</t>
+          <t>Allegheny Health Network Leadership &amp; Board of Directors</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://www.smh.com/Home/About-Us/Administrators</t>
+          <t>https://www.ahn.org/about/leadership</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Unusual behavior notice: Webpage: 
- Service Unavailable.</t>
+          <t>William K. Johnjulio, MD, Chief Population Health Officer, Medical Director, Clinically Integrated Network</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Florida Department of Health</t>
+          <t>Authority</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/</t>
+          <t>https://www.putnamgeneral.com/authority.htm</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5755,17 +5733,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PLANTATION GENERAL HOSPITAL</t>
+          <t>LIFEBRITE COMMUNITY HOSPITAL OF EARLY</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Leaders in Research | University of Michigan School of Public Health</t>
+          <t>Stokes Medical Management Group Proposal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://sph.umich.edu/research-education/research.html</t>
+          <t>https://cms9files.revize.com/stokescountync/PUBLIC%20Stokes%20Medical%20Management%20Group%20Proposal.pdf</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5775,12 +5753,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Master of Public Health (M.P.H.) | NSU College of Osteopathic ...</t>
+          <t>News - Hospital Authority of Miller County</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://osteopathic.nova.edu/degrees/masters/public-health-mph/index.html</t>
+          <t>https://www.millercountyhospital.com/news/</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5790,12 +5768,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Public Health Careers | Florida Department of Health</t>
+          <t>Tenor Health Partners Proposal.pdf</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/about/careers/index.html</t>
+          <t>https://cms9files.revize.com/stokescountync/Tenor%20Health%20Partners%20Proposal.pdf</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5810,32 +5788,33 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BOCA RATON REGIONAL HOSPITAL</t>
+          <t>WARM SPRINGS MEDICAL CENTER</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Boca Raton Regional Hospital | Hospital in Boca Raton</t>
+          <t>SPRINGS</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.brrh.com/</t>
+          <t>http://www.warmspringsmc.org/CHNA/chna.pdf</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ Sorry you have been blocked You are unable to access jina.ai This website is using a security service to protect itself from online attacks The action you just performed triggered the security solution There are several actions that could trigger this block including submitting a certain word or phrase a SQL command or malformed data You can email the site owner to let them know you were blocked Please include what you were doing when this page came up and the Cloudflare Ray ID found at the bottom of this page Cloudflare Ray ID 8aaa2e06dc0db9ac Your IP Click to reveal 98.97.96.160 Performance &amp; security by Cloudflare.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Public Health Leadership Paramount to Emerging ... - FAU</t>
+          <t>Wellstar MCG Health | World-Class Health Care</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://www.fau.edu/newsdesk/articles/covid19-public-health.php</t>
+          <t>https://www.augustahealth.org/</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5845,12 +5824,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Executive Leadership | Hospital in Boca Raton</t>
+          <t>Montana's public psychiatric hospital shuffles top leadership, again</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.brrh.com/about/executive-leadership/</t>
+          <t>https://montanafreepress.org/2024/07/11/montana-public-psychiatric-hospital-shuffles-top-leadership-again/</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5865,32 +5844,33 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ADVENTHEALTH TAMPA</t>
+          <t>MONROE COUNTY HOSPITAL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AdventHealth Tampa 2023-2025 Community Health Plan</t>
+          <t>Community Health Improvement - Health Policy - Center for ...</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/sites/default/files/assets/adventhealth-tampa-2023-2025-community-health-plan.pdf</t>
+          <t>https://www.urmc.rochester.edu/community-health/health-policy/current-policy-initiatives.aspx</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Unusual behavior notice: Webpage: 
+ Service Unavailable.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>What Does a Population Health Manager Do? | AdventHealth ...</t>
+          <t>County Executive - Monroe County, NY</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://www.ahu.edu/blog/population-health-manager</t>
+          <t>https://www.monroecounty.gov/executive</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5900,12 +5880,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>AdventHealth Leadership</t>
+          <t>Community Health - Monroe County, NY 2019-2021 Monroe County ...</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.adventhealth.com/adventhealth-leadership</t>
+          <t>https://www.urmc.rochester.edu/MediaLibraries/URMCMedia/community/documents/MC-CHIP-Implementation-Final-Report-2021.pdf</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5920,17 +5900,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DESOTO MEMORIAL HOSPITAL</t>
+          <t>WELLSTAR SYLVAN GROVE HOSPITAL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Baptist Memorial Hospital-DeSoto | Southaven Hospital</t>
+          <t>Wellstar Executive Leadership</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.baptistonline.org/locations/desoto</t>
+          <t>https://www.wellstar.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5940,12 +5920,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Community Health Assessment DeSoto County, Florida</t>
+          <t>Search Jobs and Careers in Healthcare with Wellstar Health System</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://www.floridahealth.gov/provider-and-partner-resources/community-partnerships/floridamapp/state-and-community-reports/desoto-county/_documents/DeSoto_CHA2.pdf</t>
+          <t>https://careers.wellstar.org/</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5955,12 +5935,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Our Leaders at Baptist Memorial Health Care Corporation</t>
+          <t>Wellstar Sylvan Grove Medical Center</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://www.baptistonline.org/about/leadership</t>
+          <t>https://www.wellstar.org/locations/hospital/sylvan-grove-medical-center</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5975,47 +5955,47 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PALM BEACH GARDENS MEDICAL CENTER</t>
+          <t>HIGGINS GENERAL HOSPITAL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Palm Beach County Health Department</t>
+          <t>Executive Leadership - Tanner Health System</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://palmbeach.floridahealth.gov/</t>
+          <t>https://www.tanner.org/about-us/executive-leadership</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>none found</t>
+          <t>Clint Hoffman, MBA FACHE, Senior Vice President Tanner Medical Group</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>HCAA Alumni Updates - June 2018 | Trinity University</t>
+          <t>Hospital Leadership Bios - Brigham and Women's Hospital</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://www.trinity.edu/academics/departments/health-care-administration/health-connections/june-2018/hcaa-alumni-updates-june-2018</t>
+          <t>https://www.brighamandwomens.org/about-bwh/leadership</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Ashley Nelson ’14, director of Population Health Advisors</t>
+          <t>Mallika Mendu MD MBA, Interim Chief Population Health Officer Mass General Brigham, Vice President Clinical Operations and Care Continuum</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Health Care District of Palm Beach County - hcdpbc.org</t>
+          <t>Higgins General Hospital | Tanner Health System</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.hcdpbc.org/</t>
+          <t>https://www.tanner.org/higgins-general-hospital</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6030,17 +6010,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CAPE CANAVERAL HOSPITAL</t>
+          <t>OPTIM MEDICAL CENTER - TATTNALL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Health First on LinkedIn: We are excited to announce that the Health ...</t>
+          <t>Living Life in Tattnall County</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/health-first_we-are-excited-to-announce-that-the-health-activity-7188272970383937536-51-j</t>
+          <t>https://www.dca.ga.gov/sites/default/files/tattnall_county_joint_comprehensive_plan_final.pdf</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6050,12 +6030,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3-2-1 Liftoff! Health First Breaks Ground on New Cape Canaveral ...</t>
+          <t>Growing Progress:</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://hf.org/news/3-2-1-liftoff-health-first-breaks-ground-new-cape-canaveral-hospital-merritt-island</t>
+          <t>https://dca.ga.gov/sites/default/files/tattnall_co_cobbtown_ci_collins_ci_manassas_ci_reidsville_ci_comp_plan_2013.pdf</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6065,12 +6045,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>A new era begins for Cape Canaveral Hospital</t>
+          <t>Untitled</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://mynews13.com/fl/orlando/news/2024/03/21/new-cape-canaveral-hospital</t>
+          <t>https://www.dca.ga.gov/sites/default/files/tattnall_county_comp_plan_2018_adopted.pdf</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
